--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_12_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_12_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1986212.282005416</v>
+        <v>1985448.468775352</v>
       </c>
     </row>
     <row r="7">
@@ -740,19 +740,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24.76484596498758</v>
+      </c>
+      <c r="E3" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="G3" t="n">
-        <v>24.76484596498756</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>28.11631013281968</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -819,62 +819,62 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>24.76484596498758</v>
-      </c>
       <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>24.76484596498756</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -977,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>24.76484596498756</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>28.11631013281968</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>24.76484596498758</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>24.76484596498756</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1211,26 +1211,26 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>24.76484596498756</v>
       </c>
       <c r="F9" t="n">
-        <v>24.76484596498756</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>24.76484596498756</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,41 +1305,41 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="H10" t="n">
-        <v>24.76484596498756</v>
-      </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.31536490468262</v>
+        <v>66.31536490468261</v>
       </c>
       <c r="T11" t="n">
-        <v>191.5333462241634</v>
+        <v>191.5333462241637</v>
       </c>
       <c r="U11" t="n">
-        <v>230.8819367521432</v>
+        <v>230.8819367521427</v>
       </c>
       <c r="V11" t="n">
-        <v>329.0677926038201</v>
+        <v>329.0677926038215</v>
       </c>
       <c r="W11" t="n">
         <v>367.5807080814637</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.4175809037519</v>
+        <v>163.4175809037521</v>
       </c>
       <c r="C13" t="n">
-        <v>145.4061093686803</v>
+        <v>145.4061093686802</v>
       </c>
       <c r="D13" t="n">
         <v>136.8368770233041</v>
@@ -1548,7 +1548,7 @@
         <v>115.3831270742398</v>
       </c>
       <c r="I13" t="n">
-        <v>66.72485525059284</v>
+        <v>66.72485525059282</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>10.95737152839176</v>
+        <v>10.95737152839206</v>
       </c>
       <c r="S13" t="n">
         <v>139.4149445267503</v>
       </c>
       <c r="T13" t="n">
-        <v>215.0363511369224</v>
+        <v>215.0363511369223</v>
       </c>
       <c r="U13" t="n">
-        <v>252.5228179142943</v>
+        <v>252.5228179142942</v>
       </c>
       <c r="V13" t="n">
         <v>254.0476245968585</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.31536490468223</v>
+        <v>66.31536490468261</v>
       </c>
       <c r="T14" t="n">
-        <v>191.5333462241637</v>
+        <v>191.5333462241643</v>
       </c>
       <c r="U14" t="n">
-        <v>230.8819367521432</v>
+        <v>230.8819367521423</v>
       </c>
       <c r="V14" t="n">
         <v>329.0677926038201</v>
@@ -1767,7 +1767,7 @@
         <v>163.4175809037521</v>
       </c>
       <c r="C16" t="n">
-        <v>145.4061093686803</v>
+        <v>145.4061093686802</v>
       </c>
       <c r="D16" t="n">
         <v>136.8368770233041</v>
@@ -1785,7 +1785,7 @@
         <v>115.3831270742398</v>
       </c>
       <c r="I16" t="n">
-        <v>66.72485525059251</v>
+        <v>66.72485525059282</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>10.95737152839176</v>
+        <v>10.95737152839174</v>
       </c>
       <c r="S16" t="n">
         <v>139.4149445267503</v>
       </c>
       <c r="T16" t="n">
-        <v>215.0363511369224</v>
+        <v>215.0363511369223</v>
       </c>
       <c r="U16" t="n">
-        <v>252.5228179142943</v>
+        <v>252.5228179142942</v>
       </c>
       <c r="V16" t="n">
         <v>254.0476245968585</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>390.8031525274223</v>
+        <v>390.8031525274218</v>
       </c>
       <c r="C17" t="n">
-        <v>397.78499456564</v>
+        <v>397.7849945656406</v>
       </c>
       <c r="D17" t="n">
         <v>394.2129664856568</v>
@@ -2004,7 +2004,7 @@
         <v>163.4175809037521</v>
       </c>
       <c r="C19" t="n">
-        <v>145.4061093686803</v>
+        <v>145.4061093686802</v>
       </c>
       <c r="D19" t="n">
         <v>136.8368770233041</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>10.95737152839175</v>
+        <v>10.95737152839206</v>
       </c>
       <c r="S19" t="n">
         <v>139.4149445267503</v>
       </c>
       <c r="T19" t="n">
-        <v>215.0363511369224</v>
+        <v>215.0363511369223</v>
       </c>
       <c r="U19" t="n">
-        <v>252.5228179142943</v>
+        <v>252.5228179142942</v>
       </c>
       <c r="V19" t="n">
         <v>254.0476245968585</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>66.31536490468261</v>
+        <v>66.31536490468223</v>
       </c>
       <c r="T20" t="n">
-        <v>191.5333462241634</v>
+        <v>191.5333462241637</v>
       </c>
       <c r="U20" t="n">
         <v>230.8819367521432</v>
@@ -2241,7 +2241,7 @@
         <v>163.4175809037521</v>
       </c>
       <c r="C22" t="n">
-        <v>145.4061093686803</v>
+        <v>145.4061093686802</v>
       </c>
       <c r="D22" t="n">
         <v>136.8368770233041</v>
@@ -2259,7 +2259,7 @@
         <v>115.3831270742398</v>
       </c>
       <c r="I22" t="n">
-        <v>66.72485525059274</v>
+        <v>66.72485525059282</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>10.95737152839175</v>
+        <v>10.95737152839174</v>
       </c>
       <c r="S22" t="n">
         <v>139.4149445267503</v>
       </c>
       <c r="T22" t="n">
-        <v>215.0363511369224</v>
+        <v>215.0363511369223</v>
       </c>
       <c r="U22" t="n">
-        <v>252.5228179142943</v>
+        <v>252.5228179142952</v>
       </c>
       <c r="V22" t="n">
         <v>254.0476245968585</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>66.31536490468261</v>
+        <v>66.31536490468223</v>
       </c>
       <c r="T23" t="n">
         <v>191.5333462241637</v>
       </c>
       <c r="U23" t="n">
-        <v>230.8819367521423</v>
+        <v>230.8819367521427</v>
       </c>
       <c r="V23" t="n">
         <v>329.0677926038201</v>
@@ -2478,7 +2478,7 @@
         <v>163.4175809037521</v>
       </c>
       <c r="C25" t="n">
-        <v>145.4061093686803</v>
+        <v>145.4061093686802</v>
       </c>
       <c r="D25" t="n">
         <v>136.8368770233041</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>10.95737152839175</v>
+        <v>10.95737152839174</v>
       </c>
       <c r="S25" t="n">
         <v>139.4149445267503</v>
       </c>
       <c r="T25" t="n">
-        <v>215.0363511369224</v>
+        <v>215.0363511369223</v>
       </c>
       <c r="U25" t="n">
-        <v>252.5228179142943</v>
+        <v>252.5228179142942</v>
       </c>
       <c r="V25" t="n">
         <v>254.0476245968585</v>
@@ -2544,7 +2544,7 @@
         <v>215.29152946746</v>
       </c>
       <c r="Y25" t="n">
-        <v>199.2326125059622</v>
+        <v>199.2326125059625</v>
       </c>
     </row>
     <row r="26">
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>91.16209302587626</v>
+        <v>91.16209302587551</v>
       </c>
       <c r="T26" t="n">
         <v>216.3800743453566</v>
       </c>
       <c r="U26" t="n">
-        <v>255.7286648733355</v>
+        <v>255.7286648733356</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
@@ -2715,25 +2715,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>110.0639467640795</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.3550037231638</v>
       </c>
       <c r="H28" t="n">
-        <v>4.140789936906406</v>
+        <v>140.2298551954327</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>91.57158337178572</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>399.761978833743</v>
+        <v>399.7619788337427</v>
       </c>
       <c r="H29" t="n">
         <v>289.4240117888378</v>
@@ -2848,7 +2848,7 @@
         <v>216.3800743453566</v>
       </c>
       <c r="U29" t="n">
-        <v>255.7286648733355</v>
+        <v>255.7286648733364</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -2958,19 +2958,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>109.5528939494162</v>
       </c>
       <c r="G31" t="n">
         <v>164.3550037231638</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2298551954327</v>
       </c>
       <c r="I31" t="n">
-        <v>91.57158337178572</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>164.2616726479432</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>239.8830792581153</v>
@@ -3012,13 +3012,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>244.3974232583246</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3031,10 +3031,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868328</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068496</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
@@ -3043,13 +3043,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>399.7619788337429</v>
+        <v>399.761978833743</v>
       </c>
       <c r="H32" t="n">
-        <v>289.4240117888377</v>
+        <v>289.4240117888378</v>
       </c>
       <c r="I32" t="n">
-        <v>13.97270498488801</v>
+        <v>13.97270498488807</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>91.16209302587545</v>
+        <v>91.16209302587551</v>
       </c>
       <c r="T32" t="n">
-        <v>216.3800743453565</v>
+        <v>216.3800743453566</v>
       </c>
       <c r="U32" t="n">
-        <v>255.7286648733364</v>
+        <v>255.7286648733356</v>
       </c>
       <c r="V32" t="n">
-        <v>353.9145207250129</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026565</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439301</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446585</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3192,19 +3192,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>1.469391358239591</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>141.8029672907072</v>
       </c>
       <c r="G34" t="n">
         <v>164.3550037231638</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2298551954327</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3319,10 +3319,10 @@
         <v>66.31536490468261</v>
       </c>
       <c r="T35" t="n">
-        <v>191.5333462241634</v>
+        <v>191.5333462241643</v>
       </c>
       <c r="U35" t="n">
-        <v>230.8819367521432</v>
+        <v>230.8819367521423</v>
       </c>
       <c r="V35" t="n">
         <v>329.0677926038201</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>10.95737152839174</v>
+        <v>10.95737152839175</v>
       </c>
       <c r="S37" t="n">
         <v>139.4149445267503</v>
@@ -3480,7 +3480,7 @@
         <v>215.0363511369223</v>
       </c>
       <c r="U37" t="n">
-        <v>252.5228179142942</v>
+        <v>252.5228179142943</v>
       </c>
       <c r="V37" t="n">
         <v>254.0476245968585</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.8031525274214</v>
+        <v>390.8031525274218</v>
       </c>
       <c r="C38" t="n">
         <v>397.78499456564</v>
@@ -3559,7 +3559,7 @@
         <v>191.5333462241637</v>
       </c>
       <c r="U38" t="n">
-        <v>230.8819367521427</v>
+        <v>230.8819367521423</v>
       </c>
       <c r="V38" t="n">
         <v>329.0677926038201</v>
@@ -3681,7 +3681,7 @@
         <v>115.3831270742398</v>
       </c>
       <c r="I40" t="n">
-        <v>66.72485525059281</v>
+        <v>66.72485525059282</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>10.95737152839174</v>
+        <v>10.95737152839175</v>
       </c>
       <c r="S40" t="n">
         <v>139.4149445267503</v>
@@ -3717,7 +3717,7 @@
         <v>215.0363511369223</v>
       </c>
       <c r="U40" t="n">
-        <v>252.5228179142952</v>
+        <v>252.5228179142943</v>
       </c>
       <c r="V40" t="n">
         <v>254.0476245968585</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.31536490468261</v>
+        <v>66.31536490468223</v>
       </c>
       <c r="T41" t="n">
-        <v>191.5333462241643</v>
+        <v>191.5333462241637</v>
       </c>
       <c r="U41" t="n">
-        <v>230.8819367521423</v>
+        <v>230.8819367521427</v>
       </c>
       <c r="V41" t="n">
         <v>329.0677926038201</v>
@@ -3915,7 +3915,7 @@
         <v>139.5082756019709</v>
       </c>
       <c r="H43" t="n">
-        <v>115.3831270742399</v>
+        <v>115.3831270742398</v>
       </c>
       <c r="I43" t="n">
         <v>66.72485525059282</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.95737152839174</v>
+        <v>10.95737152839161</v>
       </c>
       <c r="S43" t="n">
         <v>139.4149445267503</v>
@@ -3954,7 +3954,7 @@
         <v>215.0363511369223</v>
       </c>
       <c r="U43" t="n">
-        <v>252.5228179142942</v>
+        <v>252.5228179142943</v>
       </c>
       <c r="V43" t="n">
         <v>254.0476245968585</v>
@@ -3988,13 +3988,13 @@
         <v>396.8704423324281</v>
       </c>
       <c r="F44" t="n">
-        <v>396.0262118713006</v>
+        <v>396.0262118713009</v>
       </c>
       <c r="G44" t="n">
         <v>374.9152507125501</v>
       </c>
       <c r="H44" t="n">
-        <v>264.5772836676449</v>
+        <v>264.5772836676456</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>163.4175809037521</v>
       </c>
       <c r="C46" t="n">
-        <v>145.4061093686802</v>
+        <v>145.4061093686803</v>
       </c>
       <c r="D46" t="n">
         <v>136.8368770233041</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>10.95737152839206</v>
+        <v>10.95737152839175</v>
       </c>
       <c r="S46" t="n">
         <v>139.4149445267503</v>
       </c>
       <c r="T46" t="n">
-        <v>215.0363511369223</v>
+        <v>215.0363511369222</v>
       </c>
       <c r="U46" t="n">
-        <v>252.5228179142942</v>
+        <v>252.5228179142943</v>
       </c>
       <c r="V46" t="n">
         <v>254.0476245968585</v>
@@ -4330,16 +4330,16 @@
         <v>2.249304810625575</v>
       </c>
       <c r="J2" t="n">
-        <v>2.249304810625575</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="K2" t="n">
-        <v>2.249304810625575</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="L2" t="n">
-        <v>2.249304810625575</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="M2" t="n">
-        <v>2.249304810625575</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="N2" t="n">
         <v>28.95979943680427</v>
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="C3" t="n">
-        <v>55.66461400032987</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="D3" t="n">
-        <v>55.66461400032987</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="E3" t="n">
-        <v>55.66461400032987</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="F3" t="n">
-        <v>55.66461400032987</v>
+        <v>30.6496180761</v>
       </c>
       <c r="G3" t="n">
         <v>30.6496180761</v>
@@ -4412,25 +4412,25 @@
         <v>2.249304810625575</v>
       </c>
       <c r="K3" t="n">
-        <v>2.249304810625575</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="L3" t="n">
         <v>28.95979943680427</v>
       </c>
       <c r="M3" t="n">
+        <v>28.95979943680427</v>
+      </c>
+      <c r="N3" t="n">
+        <v>28.95979943680427</v>
+      </c>
+      <c r="O3" t="n">
         <v>56.79494646829576</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
+        <v>56.79494646829576</v>
+      </c>
+      <c r="Q3" t="n">
         <v>84.63009349978725</v>
-      </c>
-      <c r="O3" t="n">
-        <v>112.4652405312787</v>
-      </c>
-      <c r="P3" t="n">
-        <v>112.4652405312787</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>112.4652405312787</v>
       </c>
       <c r="R3" t="n">
         <v>112.4652405312787</v>
@@ -4454,7 +4454,7 @@
         <v>112.4652405312787</v>
       </c>
       <c r="Y3" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
     </row>
     <row r="4">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.04993134157444</v>
+        <v>30.6496180761</v>
       </c>
       <c r="C4" t="n">
         <v>30.6496180761</v>
@@ -4482,7 +4482,7 @@
         <v>30.6496180761</v>
       </c>
       <c r="H4" t="n">
-        <v>2.249304810625575</v>
+        <v>30.6496180761</v>
       </c>
       <c r="I4" t="n">
         <v>2.249304810625575</v>
@@ -4500,40 +4500,40 @@
         <v>2.249304810625575</v>
       </c>
       <c r="N4" t="n">
-        <v>28.95979943680427</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="O4" t="n">
-        <v>56.79494646829576</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="P4" t="n">
-        <v>84.63009349978725</v>
+        <v>85.75474590510004</v>
       </c>
       <c r="Q4" t="n">
         <v>112.4652405312787</v>
       </c>
       <c r="R4" t="n">
-        <v>87.45024460704886</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="S4" t="n">
-        <v>59.04993134157444</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="T4" t="n">
-        <v>59.04993134157444</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="U4" t="n">
-        <v>59.04993134157444</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="V4" t="n">
-        <v>59.04993134157444</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="W4" t="n">
-        <v>59.04993134157444</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="X4" t="n">
-        <v>59.04993134157444</v>
+        <v>30.6496180761</v>
       </c>
       <c r="Y4" t="n">
-        <v>59.04993134157444</v>
+        <v>30.6496180761</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>87.68081948359844</v>
+        <v>87.68081948359846</v>
       </c>
       <c r="C5" t="n">
-        <v>64.82049353730262</v>
+        <v>64.82049353730264</v>
       </c>
       <c r="D5" t="n">
-        <v>45.56827676270698</v>
+        <v>45.56827676270699</v>
       </c>
       <c r="E5" t="n">
-        <v>23.63174095096858</v>
+        <v>23.6317409509686</v>
       </c>
       <c r="F5" t="n">
-        <v>2.547963180772885</v>
+        <v>2.5479631807729</v>
       </c>
       <c r="G5" t="n">
-        <v>2.249304810625575</v>
+        <v>2.24930481062559</v>
       </c>
       <c r="H5" t="n">
-        <v>2.249304810625575</v>
+        <v>2.24930481062559</v>
       </c>
       <c r="I5" t="n">
         <v>2.249304810625575</v>
       </c>
       <c r="J5" t="n">
-        <v>28.95979943680427</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="K5" t="n">
-        <v>28.95979943680427</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="L5" t="n">
-        <v>56.79494646829576</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="M5" t="n">
-        <v>56.79494646829576</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="N5" t="n">
-        <v>56.79494646829576</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="O5" t="n">
-        <v>84.63009349978725</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="P5" t="n">
         <v>84.63009349978725</v>
       </c>
       <c r="Q5" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="R5" t="n">
         <v>112.4652405312787</v>
@@ -4609,7 +4609,7 @@
         <v>112.4652405312787</v>
       </c>
       <c r="X5" t="n">
-        <v>104.78564573943</v>
+        <v>104.7856457394301</v>
       </c>
       <c r="Y5" t="n">
         <v>103.4887797347244</v>
@@ -4625,10 +4625,10 @@
         <v>112.4652405312787</v>
       </c>
       <c r="C6" t="n">
+        <v>112.4652405312787</v>
+      </c>
+      <c r="D6" t="n">
         <v>84.0649272658043</v>
-      </c>
-      <c r="D6" t="n">
-        <v>59.04993134157444</v>
       </c>
       <c r="E6" t="n">
         <v>59.04993134157444</v>
@@ -4643,31 +4643,31 @@
         <v>2.249304810625575</v>
       </c>
       <c r="I6" t="n">
-        <v>2.249304810625575</v>
+        <v>9.695947772537416</v>
       </c>
       <c r="J6" t="n">
-        <v>2.249304810625575</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="K6" t="n">
-        <v>2.249304810625575</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="L6" t="n">
         <v>28.95979943680427</v>
       </c>
       <c r="M6" t="n">
+        <v>28.95979943680427</v>
+      </c>
+      <c r="N6" t="n">
+        <v>28.95979943680427</v>
+      </c>
+      <c r="O6" t="n">
+        <v>28.95979943680427</v>
+      </c>
+      <c r="P6" t="n">
         <v>56.79494646829576</v>
       </c>
-      <c r="N6" t="n">
-        <v>56.79494646829576</v>
-      </c>
-      <c r="O6" t="n">
-        <v>56.79494646829576</v>
-      </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>84.63009349978725</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>112.4652405312787</v>
       </c>
       <c r="R6" t="n">
         <v>112.4652405312787</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.249304810625575</v>
+        <v>30.6496180761</v>
       </c>
       <c r="C7" t="n">
-        <v>2.249304810625575</v>
+        <v>30.6496180761</v>
       </c>
       <c r="D7" t="n">
-        <v>2.249304810625575</v>
+        <v>30.6496180761</v>
       </c>
       <c r="E7" t="n">
-        <v>2.249304810625575</v>
+        <v>30.6496180761</v>
       </c>
       <c r="F7" t="n">
         <v>2.249304810625575</v>
@@ -4725,52 +4725,52 @@
         <v>2.249304810625575</v>
       </c>
       <c r="J7" t="n">
-        <v>28.95979943680427</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="K7" t="n">
-        <v>56.79494646829576</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="L7" t="n">
+        <v>57.91959887360855</v>
+      </c>
+      <c r="M7" t="n">
+        <v>57.91959887360855</v>
+      </c>
+      <c r="N7" t="n">
+        <v>57.91959887360855</v>
+      </c>
+      <c r="O7" t="n">
+        <v>57.91959887360855</v>
+      </c>
+      <c r="P7" t="n">
         <v>84.63009349978725</v>
-      </c>
-      <c r="M7" t="n">
-        <v>112.4652405312787</v>
-      </c>
-      <c r="N7" t="n">
-        <v>112.4652405312787</v>
-      </c>
-      <c r="O7" t="n">
-        <v>112.4652405312787</v>
-      </c>
-      <c r="P7" t="n">
-        <v>112.4652405312787</v>
       </c>
       <c r="Q7" t="n">
         <v>112.4652405312787</v>
       </c>
       <c r="R7" t="n">
-        <v>87.45024460704886</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="S7" t="n">
-        <v>87.45024460704886</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="T7" t="n">
-        <v>87.45024460704886</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="U7" t="n">
-        <v>87.45024460704886</v>
+        <v>30.6496180761</v>
       </c>
       <c r="V7" t="n">
-        <v>87.45024460704886</v>
+        <v>30.6496180761</v>
       </c>
       <c r="W7" t="n">
-        <v>59.04993134157444</v>
+        <v>30.6496180761</v>
       </c>
       <c r="X7" t="n">
         <v>30.6496180761</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.249304810625575</v>
+        <v>30.6496180761</v>
       </c>
     </row>
     <row r="8">
@@ -4804,25 +4804,25 @@
         <v>2.249304810625575</v>
       </c>
       <c r="J8" t="n">
-        <v>2.249304810625575</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="K8" t="n">
-        <v>2.249304810625575</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="L8" t="n">
-        <v>30.08445184211706</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="M8" t="n">
+        <v>28.95979943680427</v>
+      </c>
+      <c r="N8" t="n">
+        <v>28.95979943680427</v>
+      </c>
+      <c r="O8" t="n">
         <v>56.79494646829576</v>
       </c>
-      <c r="N8" t="n">
-        <v>84.63009349978725</v>
-      </c>
-      <c r="O8" t="n">
-        <v>84.63009349978725</v>
-      </c>
       <c r="P8" t="n">
-        <v>84.63009349978725</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="Q8" t="n">
         <v>84.63009349978725</v>
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>55.66461400032987</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="C9" t="n">
-        <v>55.66461400032987</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="D9" t="n">
-        <v>55.66461400032987</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="E9" t="n">
-        <v>55.66461400032987</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="F9" t="n">
         <v>30.6496180761</v>
       </c>
       <c r="G9" t="n">
-        <v>2.249304810625575</v>
+        <v>30.6496180761</v>
       </c>
       <c r="H9" t="n">
         <v>2.249304810625575</v>
@@ -4886,22 +4886,22 @@
         <v>37.5310948040289</v>
       </c>
       <c r="K9" t="n">
-        <v>37.5310948040289</v>
+        <v>65.36624183552038</v>
       </c>
       <c r="L9" t="n">
-        <v>37.5310948040289</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="M9" t="n">
-        <v>65.36624183552038</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="N9" t="n">
-        <v>93.20138886701187</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="O9" t="n">
-        <v>112.4652405312787</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="P9" t="n">
-        <v>112.4652405312787</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="Q9" t="n">
         <v>112.4652405312787</v>
@@ -4925,10 +4925,10 @@
         <v>112.4652405312787</v>
       </c>
       <c r="X9" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="Y9" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
     </row>
     <row r="10">
@@ -4938,64 +4938,64 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>84.0649272658043</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="C10" t="n">
-        <v>84.0649272658043</v>
+        <v>30.6496180761</v>
       </c>
       <c r="D10" t="n">
-        <v>84.0649272658043</v>
+        <v>30.6496180761</v>
       </c>
       <c r="E10" t="n">
-        <v>84.0649272658043</v>
+        <v>30.6496180761</v>
       </c>
       <c r="F10" t="n">
-        <v>84.0649272658043</v>
+        <v>30.6496180761</v>
       </c>
       <c r="G10" t="n">
-        <v>55.66461400032987</v>
+        <v>30.6496180761</v>
       </c>
       <c r="H10" t="n">
-        <v>30.6496180761</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="I10" t="n">
         <v>2.249304810625575</v>
       </c>
       <c r="J10" t="n">
-        <v>30.08445184211706</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="K10" t="n">
-        <v>30.08445184211706</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="L10" t="n">
         <v>30.08445184211706</v>
       </c>
       <c r="M10" t="n">
-        <v>57.91959887360855</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="N10" t="n">
+        <v>56.79494646829576</v>
+      </c>
+      <c r="O10" t="n">
         <v>84.63009349978725</v>
       </c>
-      <c r="O10" t="n">
-        <v>112.4652405312787</v>
-      </c>
       <c r="P10" t="n">
-        <v>112.4652405312787</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="Q10" t="n">
         <v>112.4652405312787</v>
       </c>
       <c r="R10" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="S10" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="T10" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="U10" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="V10" t="n">
         <v>84.0649272658043</v>
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2340.852051593505</v>
+        <v>2340.852051593506</v>
       </c>
       <c r="C11" t="n">
-        <v>1939.049026779727</v>
+        <v>1939.049026779728</v>
       </c>
       <c r="D11" t="n">
         <v>1540.85411113765</v>
@@ -5035,46 +5035,46 @@
         <v>361.2461263737316</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99634489126198</v>
+        <v>93.996344891262</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99634489126198</v>
+        <v>93.996344891262</v>
       </c>
       <c r="J11" t="n">
-        <v>109.7141420225476</v>
+        <v>501.4433607301738</v>
       </c>
       <c r="K11" t="n">
-        <v>524.9874901755452</v>
+        <v>533.2452734263601</v>
       </c>
       <c r="L11" t="n">
-        <v>1537.991080922136</v>
+        <v>1546.248864172951</v>
       </c>
       <c r="M11" t="n">
-        <v>2635.05187689566</v>
+        <v>2260.136288352953</v>
       </c>
       <c r="N11" t="n">
-        <v>3705.578821487675</v>
+        <v>2317.505347852165</v>
       </c>
       <c r="O11" t="n">
-        <v>4639.745517538347</v>
+        <v>3251.672043902838</v>
       </c>
       <c r="P11" t="n">
-        <v>4678.524165923926</v>
+        <v>4035.929579638473</v>
       </c>
       <c r="Q11" t="n">
-        <v>4699.817244563099</v>
+        <v>4549.071565640381</v>
       </c>
       <c r="R11" t="n">
-        <v>4699.817244563099</v>
+        <v>4699.8172445631</v>
       </c>
       <c r="S11" t="n">
-        <v>4632.832027487662</v>
+        <v>4632.832027487663</v>
       </c>
       <c r="T11" t="n">
-        <v>4439.364000998608</v>
+        <v>4439.364000998609</v>
       </c>
       <c r="U11" t="n">
-        <v>4206.149923471191</v>
+        <v>4206.149923471193</v>
       </c>
       <c r="V11" t="n">
         <v>3873.758213770363</v>
@@ -5086,7 +5086,7 @@
         <v>3115.842275584301</v>
       </c>
       <c r="Y11" t="n">
-        <v>2735.602710712113</v>
+        <v>2735.602710712114</v>
       </c>
     </row>
     <row r="12">
@@ -5108,13 +5108,13 @@
         <v>331.9979276267373</v>
       </c>
       <c r="F12" t="n">
-        <v>238.3520973096414</v>
+        <v>238.3520973096415</v>
       </c>
       <c r="G12" t="n">
         <v>144.5867607837019</v>
       </c>
       <c r="H12" t="n">
-        <v>93.99634489126198</v>
+        <v>93.996344891262</v>
       </c>
       <c r="I12" t="n">
         <v>111.1761407022783</v>
@@ -5129,19 +5129,19 @@
         <v>1084.807100418148</v>
       </c>
       <c r="M12" t="n">
-        <v>1133.569853327857</v>
+        <v>1263.695129584944</v>
       </c>
       <c r="N12" t="n">
-        <v>1703.183714626508</v>
+        <v>1316.089892264881</v>
       </c>
       <c r="O12" t="n">
-        <v>1747.50396961111</v>
+        <v>1360.410147249483</v>
       </c>
       <c r="P12" t="n">
-        <v>1779.93325831442</v>
+        <v>1392.839435952793</v>
       </c>
       <c r="Q12" t="n">
-        <v>1793.499509582897</v>
+        <v>1893.070731990138</v>
       </c>
       <c r="R12" t="n">
         <v>1893.070731990138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>991.8297472632441</v>
+        <v>991.829747263244</v>
       </c>
       <c r="C13" t="n">
-        <v>844.9548893150823</v>
+        <v>844.9548893150821</v>
       </c>
       <c r="D13" t="n">
-        <v>706.7358216147751</v>
+        <v>706.735821614775</v>
       </c>
       <c r="E13" t="n">
-        <v>565.6253209405508</v>
+        <v>565.6253209405506</v>
       </c>
       <c r="F13" t="n">
-        <v>418.8612518880333</v>
+        <v>418.8612518880332</v>
       </c>
       <c r="G13" t="n">
-        <v>277.9438017850324</v>
+        <v>277.9438017850323</v>
       </c>
       <c r="H13" t="n">
         <v>161.3951885787295</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99634489126198</v>
+        <v>93.996344891262</v>
       </c>
       <c r="J13" t="n">
         <v>192.8419981696507</v>
@@ -5223,10 +5223,10 @@
         <v>2706.15094347376</v>
       </c>
       <c r="R13" t="n">
-        <v>2695.08289142488</v>
+        <v>2695.082891424879</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.259715135233</v>
+        <v>2554.259715135232</v>
       </c>
       <c r="T13" t="n">
         <v>2337.051279643392</v>
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2340.852051593505</v>
+        <v>2340.852051593507</v>
       </c>
       <c r="C14" t="n">
-        <v>1939.049026779728</v>
+        <v>1939.049026779729</v>
       </c>
       <c r="D14" t="n">
-        <v>1540.85411113765</v>
+        <v>1540.854111137651</v>
       </c>
       <c r="E14" t="n">
         <v>1139.97487645843</v>
       </c>
       <c r="F14" t="n">
-        <v>739.948399820752</v>
+        <v>739.9483998207519</v>
       </c>
       <c r="G14" t="n">
         <v>361.2461263737316</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99634489126198</v>
+        <v>93.996344891262</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99634489126198</v>
+        <v>93.996344891262</v>
       </c>
       <c r="J14" t="n">
-        <v>109.7141420225476</v>
+        <v>501.4433607301738</v>
       </c>
       <c r="K14" t="n">
-        <v>524.9874901755452</v>
+        <v>1284.16053618872</v>
       </c>
       <c r="L14" t="n">
-        <v>1537.991080922136</v>
+        <v>2297.164126935311</v>
       </c>
       <c r="M14" t="n">
-        <v>2635.05187689566</v>
+        <v>2352.881871219339</v>
       </c>
       <c r="N14" t="n">
-        <v>3705.578821487675</v>
+        <v>2468.251026774884</v>
       </c>
       <c r="O14" t="n">
-        <v>4639.745517538347</v>
+        <v>3402.417722825557</v>
       </c>
       <c r="P14" t="n">
-        <v>4678.524165923926</v>
+        <v>4186.675258561192</v>
       </c>
       <c r="Q14" t="n">
-        <v>4699.817244563099</v>
+        <v>4699.8172445631</v>
       </c>
       <c r="R14" t="n">
-        <v>4699.817244563099</v>
+        <v>4699.8172445631</v>
       </c>
       <c r="S14" t="n">
-        <v>4632.832027487662</v>
+        <v>4632.832027487663</v>
       </c>
       <c r="T14" t="n">
         <v>4439.364000998608</v>
       </c>
       <c r="U14" t="n">
-        <v>4206.149923471191</v>
+        <v>4206.149923471192</v>
       </c>
       <c r="V14" t="n">
-        <v>3873.758213770362</v>
+        <v>3873.758213770363</v>
       </c>
       <c r="W14" t="n">
-        <v>3502.464569243631</v>
+        <v>3502.464569243632</v>
       </c>
       <c r="X14" t="n">
-        <v>3115.8422755843</v>
+        <v>3115.842275584302</v>
       </c>
       <c r="Y14" t="n">
-        <v>2735.602710712113</v>
+        <v>2735.602710712114</v>
       </c>
     </row>
     <row r="15">
@@ -5345,13 +5345,13 @@
         <v>331.9979276267373</v>
       </c>
       <c r="F15" t="n">
-        <v>238.3520973096414</v>
+        <v>238.3520973096415</v>
       </c>
       <c r="G15" t="n">
         <v>144.5867607837019</v>
       </c>
       <c r="H15" t="n">
-        <v>93.99634489126198</v>
+        <v>93.996344891262</v>
       </c>
       <c r="I15" t="n">
         <v>111.1761407022783</v>
@@ -5366,10 +5366,10 @@
         <v>1084.807100418148</v>
       </c>
       <c r="M15" t="n">
-        <v>1133.569853327857</v>
+        <v>1164.123907177703</v>
       </c>
       <c r="N15" t="n">
-        <v>1185.964616007794</v>
+        <v>1216.51866985764</v>
       </c>
       <c r="O15" t="n">
         <v>1260.838924842242</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>991.8297472632439</v>
+        <v>991.829747263244</v>
       </c>
       <c r="C16" t="n">
-        <v>844.954889315082</v>
+        <v>844.9548893150821</v>
       </c>
       <c r="D16" t="n">
-        <v>706.7358216147747</v>
+        <v>706.735821614775</v>
       </c>
       <c r="E16" t="n">
-        <v>565.6253209405504</v>
+        <v>565.6253209405506</v>
       </c>
       <c r="F16" t="n">
-        <v>418.8612518880329</v>
+        <v>418.8612518880332</v>
       </c>
       <c r="G16" t="n">
-        <v>277.9438017850321</v>
+        <v>277.9438017850323</v>
       </c>
       <c r="H16" t="n">
-        <v>161.3951885787292</v>
+        <v>161.3951885787295</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99634489126198</v>
+        <v>93.996344891262</v>
       </c>
       <c r="J16" t="n">
         <v>192.8419981696507</v>
@@ -5442,7 +5442,7 @@
         <v>471.5032209790166</v>
       </c>
       <c r="L16" t="n">
-        <v>886.0265847978519</v>
+        <v>886.0265847978513</v>
       </c>
       <c r="M16" t="n">
         <v>1338.961831973174</v>
@@ -5451,7 +5451,7 @@
         <v>1777.319422760615</v>
       </c>
       <c r="O16" t="n">
-        <v>2190.845013309439</v>
+        <v>2190.845013309438</v>
       </c>
       <c r="P16" t="n">
         <v>2534.706839717505</v>
@@ -5460,10 +5460,10 @@
         <v>2706.15094347376</v>
       </c>
       <c r="R16" t="n">
-        <v>2695.08289142488</v>
+        <v>2695.082891424879</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.259715135233</v>
+        <v>2554.259715135232</v>
       </c>
       <c r="T16" t="n">
         <v>2337.051279643392</v>
@@ -5518,19 +5518,19 @@
         <v>501.4433607301738</v>
       </c>
       <c r="K17" t="n">
-        <v>1284.16053618872</v>
+        <v>1191.414953322333</v>
       </c>
       <c r="L17" t="n">
-        <v>2297.16412693531</v>
+        <v>2204.418544068923</v>
       </c>
       <c r="M17" t="n">
-        <v>2352.881871219339</v>
+        <v>2260.136288352952</v>
       </c>
       <c r="N17" t="n">
-        <v>3062.984235202221</v>
+        <v>2317.505347852165</v>
       </c>
       <c r="O17" t="n">
-        <v>3997.150931252893</v>
+        <v>3251.672043902837</v>
       </c>
       <c r="P17" t="n">
         <v>4035.929579638472</v>
@@ -5597,22 +5597,22 @@
         <v>392.4023495240454</v>
       </c>
       <c r="K18" t="n">
-        <v>1028.536382900726</v>
+        <v>452.490732926181</v>
       </c>
       <c r="L18" t="n">
-        <v>1115.361154267995</v>
+        <v>491.5816546325864</v>
       </c>
       <c r="M18" t="n">
-        <v>1164.123907177703</v>
+        <v>540.3444075422947</v>
       </c>
       <c r="N18" t="n">
-        <v>1216.51866985764</v>
+        <v>1703.183714626508</v>
       </c>
       <c r="O18" t="n">
-        <v>1260.838924842242</v>
+        <v>1747.50396961111</v>
       </c>
       <c r="P18" t="n">
-        <v>1293.268213545552</v>
+        <v>1779.93325831442</v>
       </c>
       <c r="Q18" t="n">
         <v>1793.499509582897</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>991.8297472632441</v>
+        <v>991.829747263244</v>
       </c>
       <c r="C19" t="n">
-        <v>844.9548893150823</v>
+        <v>844.9548893150821</v>
       </c>
       <c r="D19" t="n">
-        <v>706.7358216147751</v>
+        <v>706.735821614775</v>
       </c>
       <c r="E19" t="n">
-        <v>565.6253209405508</v>
+        <v>565.6253209405506</v>
       </c>
       <c r="F19" t="n">
-        <v>418.8612518880333</v>
+        <v>418.8612518880332</v>
       </c>
       <c r="G19" t="n">
         <v>277.9438017850323</v>
@@ -5679,7 +5679,7 @@
         <v>471.5032209790166</v>
       </c>
       <c r="L19" t="n">
-        <v>886.0265847978518</v>
+        <v>886.0265847978519</v>
       </c>
       <c r="M19" t="n">
         <v>1338.961831973174</v>
@@ -5697,10 +5697,10 @@
         <v>2706.15094347376</v>
       </c>
       <c r="R19" t="n">
-        <v>2695.08289142488</v>
+        <v>2695.082891424879</v>
       </c>
       <c r="S19" t="n">
-        <v>2554.259715135233</v>
+        <v>2554.259715135232</v>
       </c>
       <c r="T19" t="n">
         <v>2337.051279643392</v>
@@ -5715,10 +5715,10 @@
         <v>1575.609265320996</v>
       </c>
       <c r="X19" t="n">
-        <v>1358.143073939724</v>
+        <v>1358.143073939723</v>
       </c>
       <c r="Y19" t="n">
-        <v>1156.898010802388</v>
+        <v>1156.898010802387</v>
       </c>
     </row>
     <row r="20">
@@ -5755,19 +5755,19 @@
         <v>501.4433607301738</v>
       </c>
       <c r="K20" t="n">
-        <v>533.24527342636</v>
+        <v>1284.16053618872</v>
       </c>
       <c r="L20" t="n">
-        <v>1546.24886417295</v>
+        <v>2297.16412693531</v>
       </c>
       <c r="M20" t="n">
-        <v>2129.140103173426</v>
+        <v>2352.881871219339</v>
       </c>
       <c r="N20" t="n">
-        <v>3199.667047765441</v>
+        <v>2410.250930718551</v>
       </c>
       <c r="O20" t="n">
-        <v>3251.672043902837</v>
+        <v>3344.417626769224</v>
       </c>
       <c r="P20" t="n">
         <v>4035.929579638472</v>
@@ -5828,28 +5828,28 @@
         <v>93.99634489126198</v>
       </c>
       <c r="I21" t="n">
-        <v>93.99634489126198</v>
+        <v>111.1761407022783</v>
       </c>
       <c r="J21" t="n">
-        <v>392.4023495240454</v>
+        <v>409.5821453350618</v>
       </c>
       <c r="K21" t="n">
-        <v>415.8762148373868</v>
+        <v>1045.716178711743</v>
       </c>
       <c r="L21" t="n">
-        <v>1314.055880473786</v>
+        <v>1701.597421444103</v>
       </c>
       <c r="M21" t="n">
-        <v>1362.818633383494</v>
+        <v>1750.360174353812</v>
       </c>
       <c r="N21" t="n">
-        <v>1415.213396063431</v>
+        <v>1802.754937033749</v>
       </c>
       <c r="O21" t="n">
-        <v>1459.533651048033</v>
+        <v>1847.075192018351</v>
       </c>
       <c r="P21" t="n">
-        <v>1491.962939751343</v>
+        <v>1879.504480721661</v>
       </c>
       <c r="Q21" t="n">
         <v>1893.070731990138</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>991.8297472632441</v>
+        <v>991.829747263244</v>
       </c>
       <c r="C22" t="n">
         <v>844.9548893150821</v>
@@ -5904,19 +5904,19 @@
         <v>277.9438017850323</v>
       </c>
       <c r="H22" t="n">
-        <v>161.3951885787294</v>
+        <v>161.3951885787295</v>
       </c>
       <c r="I22" t="n">
         <v>93.99634489126198</v>
       </c>
       <c r="J22" t="n">
-        <v>192.8419981696505</v>
+        <v>192.8419981696507</v>
       </c>
       <c r="K22" t="n">
-        <v>471.5032209790165</v>
+        <v>471.5032209790167</v>
       </c>
       <c r="L22" t="n">
-        <v>886.0265847978519</v>
+        <v>886.026584797852</v>
       </c>
       <c r="M22" t="n">
         <v>1338.961831973174</v>
@@ -5928,10 +5928,10 @@
         <v>2190.845013309439</v>
       </c>
       <c r="P22" t="n">
-        <v>2534.706839717505</v>
+        <v>2534.706839717506</v>
       </c>
       <c r="Q22" t="n">
-        <v>2706.15094347376</v>
+        <v>2706.150943473761</v>
       </c>
       <c r="R22" t="n">
         <v>2695.08289142488</v>
@@ -5940,7 +5940,7 @@
         <v>2554.259715135233</v>
       </c>
       <c r="T22" t="n">
-        <v>2337.051279643392</v>
+        <v>2337.051279643393</v>
       </c>
       <c r="U22" t="n">
         <v>2081.97772619461</v>
@@ -5952,10 +5952,10 @@
         <v>1575.609265320996</v>
       </c>
       <c r="X22" t="n">
-        <v>1358.143073939724</v>
+        <v>1358.143073939723</v>
       </c>
       <c r="Y22" t="n">
-        <v>1156.898010802388</v>
+        <v>1156.898010802387</v>
       </c>
     </row>
     <row r="23">
@@ -5989,40 +5989,40 @@
         <v>93.99634489126198</v>
       </c>
       <c r="J23" t="n">
-        <v>109.7141420225476</v>
+        <v>501.4433607301738</v>
       </c>
       <c r="K23" t="n">
-        <v>141.5160547187338</v>
+        <v>1284.16053618872</v>
       </c>
       <c r="L23" t="n">
-        <v>792.5121935720792</v>
+        <v>2297.16412693531</v>
       </c>
       <c r="M23" t="n">
-        <v>1889.572989545604</v>
+        <v>2352.881871219339</v>
       </c>
       <c r="N23" t="n">
-        <v>2960.099934137619</v>
+        <v>2410.250930718551</v>
       </c>
       <c r="O23" t="n">
-        <v>3894.266630188291</v>
+        <v>3251.672043902837</v>
       </c>
       <c r="P23" t="n">
-        <v>4678.524165923926</v>
+        <v>4035.929579638472</v>
       </c>
       <c r="Q23" t="n">
-        <v>4699.817244563099</v>
+        <v>4549.07156564038</v>
       </c>
       <c r="R23" t="n">
         <v>4699.817244563099</v>
       </c>
       <c r="S23" t="n">
-        <v>4632.832027487661</v>
+        <v>4632.832027487662</v>
       </c>
       <c r="T23" t="n">
-        <v>4439.364000998607</v>
+        <v>4439.364000998608</v>
       </c>
       <c r="U23" t="n">
-        <v>4206.149923471191</v>
+        <v>4206.149923471192</v>
       </c>
       <c r="V23" t="n">
         <v>3873.758213770363</v>
@@ -6080,10 +6080,10 @@
         <v>1133.569853327857</v>
       </c>
       <c r="N24" t="n">
-        <v>1216.51866985764</v>
+        <v>1185.964616007794</v>
       </c>
       <c r="O24" t="n">
-        <v>1260.838924842242</v>
+        <v>1230.284870992396</v>
       </c>
       <c r="P24" t="n">
         <v>1293.268213545552</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>991.8297472632441</v>
+        <v>991.829747263244</v>
       </c>
       <c r="C25" t="n">
-        <v>844.9548893150823</v>
+        <v>844.9548893150821</v>
       </c>
       <c r="D25" t="n">
-        <v>706.7358216147751</v>
+        <v>706.735821614775</v>
       </c>
       <c r="E25" t="n">
-        <v>565.6253209405508</v>
+        <v>565.6253209405506</v>
       </c>
       <c r="F25" t="n">
-        <v>418.8612518880333</v>
+        <v>418.8612518880332</v>
       </c>
       <c r="G25" t="n">
         <v>277.9438017850323</v>
@@ -6162,7 +6162,7 @@
         <v>1777.319422760615</v>
       </c>
       <c r="O25" t="n">
-        <v>2190.845013309439</v>
+        <v>2190.845013309438</v>
       </c>
       <c r="P25" t="n">
         <v>2534.706839717505</v>
@@ -6171,10 +6171,10 @@
         <v>2706.15094347376</v>
       </c>
       <c r="R25" t="n">
-        <v>2695.08289142488</v>
+        <v>2695.082891424879</v>
       </c>
       <c r="S25" t="n">
-        <v>2554.259715135233</v>
+        <v>2554.259715135232</v>
       </c>
       <c r="T25" t="n">
         <v>2337.051279643392</v>
@@ -6192,7 +6192,7 @@
         <v>1358.143073939723</v>
       </c>
       <c r="Y25" t="n">
-        <v>1156.898010802388</v>
+        <v>1156.898010802387</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2513.010936577462</v>
+        <v>2513.010936577464</v>
       </c>
       <c r="C26" t="n">
-        <v>2086.110206590763</v>
+        <v>2086.110206590764</v>
       </c>
       <c r="D26" t="n">
         <v>1662.817585775764</v>
@@ -6214,64 +6214,64 @@
         <v>1236.840645923622</v>
       </c>
       <c r="F26" t="n">
-        <v>811.7164641130217</v>
+        <v>811.7164641130221</v>
       </c>
       <c r="G26" t="n">
-        <v>407.9164854930793</v>
+        <v>407.9164854930796</v>
       </c>
       <c r="H26" t="n">
-        <v>115.5689988376875</v>
+        <v>115.5689988376876</v>
       </c>
       <c r="I26" t="n">
         <v>101.4551554186087</v>
       </c>
       <c r="J26" t="n">
-        <v>117.1729525498943</v>
+        <v>508.9021712575205</v>
       </c>
       <c r="K26" t="n">
-        <v>148.9748652460805</v>
+        <v>1291.619346716067</v>
       </c>
       <c r="L26" t="n">
-        <v>522.8581336539594</v>
+        <v>2301.244399840014</v>
       </c>
       <c r="M26" t="n">
-        <v>1619.918929627484</v>
+        <v>3398.305195813538</v>
       </c>
       <c r="N26" t="n">
-        <v>2690.445874219499</v>
+        <v>4468.832140405553</v>
       </c>
       <c r="O26" t="n">
-        <v>3624.612570270171</v>
+        <v>4520.837136542949</v>
       </c>
       <c r="P26" t="n">
-        <v>4408.870106005807</v>
+        <v>4559.615784928528</v>
       </c>
       <c r="Q26" t="n">
-        <v>4922.012092007714</v>
+        <v>5072.757770930436</v>
       </c>
       <c r="R26" t="n">
-        <v>5072.757770930433</v>
+        <v>5072.757770930436</v>
       </c>
       <c r="S26" t="n">
-        <v>4980.674848682073</v>
+        <v>4980.674848682077</v>
       </c>
       <c r="T26" t="n">
-        <v>4762.109117020097</v>
+        <v>4762.1091170201</v>
       </c>
       <c r="U26" t="n">
-        <v>4503.797334319758</v>
+        <v>4503.797334319761</v>
       </c>
       <c r="V26" t="n">
-        <v>4146.307919446008</v>
+        <v>4146.30791944601</v>
       </c>
       <c r="W26" t="n">
-        <v>3749.916569746355</v>
+        <v>3749.916569746356</v>
       </c>
       <c r="X26" t="n">
-        <v>3338.196570914102</v>
+        <v>3338.196570914104</v>
       </c>
       <c r="Y26" t="n">
-        <v>2932.859300868993</v>
+        <v>2932.859300868994</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>665.5045338483569</v>
+        <v>665.504533848357</v>
       </c>
       <c r="C27" t="n">
-        <v>547.9986303658617</v>
+        <v>547.9986303658618</v>
       </c>
       <c r="D27" t="n">
-        <v>444.1586718811467</v>
+        <v>444.1586718811468</v>
       </c>
       <c r="E27" t="n">
         <v>339.456738154084</v>
       </c>
       <c r="F27" t="n">
-        <v>245.8109078369881</v>
+        <v>245.8109078369882</v>
       </c>
       <c r="G27" t="n">
         <v>152.0455713110486</v>
@@ -6302,22 +6302,22 @@
         <v>101.4551554186087</v>
       </c>
       <c r="I27" t="n">
-        <v>101.4551554186087</v>
+        <v>118.6349512296251</v>
       </c>
       <c r="J27" t="n">
-        <v>107.758667581801</v>
+        <v>417.0409558624085</v>
       </c>
       <c r="K27" t="n">
-        <v>131.2325328951425</v>
+        <v>1053.174989239089</v>
       </c>
       <c r="L27" t="n">
-        <v>170.323454601548</v>
+        <v>1092.265910945495</v>
       </c>
       <c r="M27" t="n">
-        <v>1171.582717705049</v>
+        <v>1141.028663855203</v>
       </c>
       <c r="N27" t="n">
-        <v>1223.977480384987</v>
+        <v>1193.423426535141</v>
       </c>
       <c r="O27" t="n">
         <v>1268.297735369588</v>
@@ -6344,13 +6344,13 @@
         <v>1294.123155315247</v>
       </c>
       <c r="W27" t="n">
-        <v>1097.601778148464</v>
+        <v>1097.601778148465</v>
       </c>
       <c r="X27" t="n">
-        <v>934.1244319151273</v>
+        <v>934.1244319151274</v>
       </c>
       <c r="Y27" t="n">
-        <v>794.4315432684197</v>
+        <v>794.4315432684198</v>
       </c>
     </row>
     <row r="28">
@@ -6363,31 +6363,31 @@
         <v>612.7888817362468</v>
       </c>
       <c r="C28" t="n">
-        <v>440.8163186151628</v>
+        <v>612.7888817362468</v>
       </c>
       <c r="D28" t="n">
-        <v>277.4995457419335</v>
+        <v>612.7888817362468</v>
       </c>
       <c r="E28" t="n">
-        <v>277.4995457419335</v>
+        <v>612.7888817362468</v>
       </c>
       <c r="F28" t="n">
-        <v>105.6377715164939</v>
+        <v>501.6131779341463</v>
       </c>
       <c r="G28" t="n">
-        <v>105.6377715164939</v>
+        <v>335.5980226582233</v>
       </c>
       <c r="H28" t="n">
-        <v>101.4551554186087</v>
+        <v>193.9517042789984</v>
       </c>
       <c r="I28" t="n">
         <v>101.4551554186087</v>
       </c>
       <c r="J28" t="n">
-        <v>175.7025478570164</v>
+        <v>175.7025478570165</v>
       </c>
       <c r="K28" t="n">
-        <v>429.7655098264014</v>
+        <v>429.7655098264015</v>
       </c>
       <c r="L28" t="n">
         <v>819.6906128052558</v>
@@ -6439,55 +6439,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2513.010936577464</v>
+        <v>2513.010936577463</v>
       </c>
       <c r="C29" t="n">
-        <v>2086.110206590764</v>
+        <v>2086.110206590763</v>
       </c>
       <c r="D29" t="n">
         <v>1662.817585775764</v>
       </c>
       <c r="E29" t="n">
-        <v>1236.840645923622</v>
+        <v>1236.840645923621</v>
       </c>
       <c r="F29" t="n">
-        <v>811.7164641130217</v>
+        <v>811.7164641130214</v>
       </c>
       <c r="G29" t="n">
         <v>407.9164854930793</v>
       </c>
       <c r="H29" t="n">
-        <v>115.5689988376875</v>
+        <v>115.5689988376876</v>
       </c>
       <c r="I29" t="n">
         <v>101.4551554186087</v>
       </c>
       <c r="J29" t="n">
-        <v>117.1729525498943</v>
+        <v>508.9021712575205</v>
       </c>
       <c r="K29" t="n">
-        <v>897.9280165428804</v>
+        <v>540.7040839537067</v>
       </c>
       <c r="L29" t="n">
-        <v>1910.931607289471</v>
+        <v>586.1537050727236</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.992403262995</v>
+        <v>1683.214501046248</v>
       </c>
       <c r="N29" t="n">
-        <v>4078.51934785501</v>
+        <v>2753.741445638263</v>
       </c>
       <c r="O29" t="n">
-        <v>5012.686043905683</v>
+        <v>3687.908141688935</v>
       </c>
       <c r="P29" t="n">
-        <v>5051.464692291262</v>
+        <v>4408.870106005808</v>
       </c>
       <c r="Q29" t="n">
-        <v>5072.757770930434</v>
+        <v>4922.012092007716</v>
       </c>
       <c r="R29" t="n">
-        <v>5072.757770930434</v>
+        <v>5072.757770930435</v>
       </c>
       <c r="S29" t="n">
         <v>4980.674848682075</v>
@@ -6496,19 +6496,19 @@
         <v>4762.109117020099</v>
       </c>
       <c r="U29" t="n">
-        <v>4503.79733431976</v>
+        <v>4503.797334319759</v>
       </c>
       <c r="V29" t="n">
-        <v>4146.30791944601</v>
+        <v>4146.307919446009</v>
       </c>
       <c r="W29" t="n">
-        <v>3749.916569746357</v>
+        <v>3749.916569746356</v>
       </c>
       <c r="X29" t="n">
-        <v>3338.196570914104</v>
+        <v>3338.196570914103</v>
       </c>
       <c r="Y29" t="n">
-        <v>2932.859300868995</v>
+        <v>2932.859300868994</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>101.4551554186087</v>
       </c>
       <c r="I30" t="n">
-        <v>101.4551554186087</v>
+        <v>118.634951229625</v>
       </c>
       <c r="J30" t="n">
-        <v>174.7425329583702</v>
+        <v>417.0409558624085</v>
       </c>
       <c r="K30" t="n">
-        <v>810.8765663350513</v>
+        <v>1053.174989239089</v>
       </c>
       <c r="L30" t="n">
-        <v>1709.05623197145</v>
+        <v>1092.265910945495</v>
       </c>
       <c r="M30" t="n">
-        <v>1757.818984881158</v>
+        <v>1171.582717705049</v>
       </c>
       <c r="N30" t="n">
-        <v>1810.213747561096</v>
+        <v>1223.977480384987</v>
       </c>
       <c r="O30" t="n">
-        <v>1854.534002545697</v>
+        <v>1268.297735369588</v>
       </c>
       <c r="P30" t="n">
-        <v>1886.963291249008</v>
+        <v>1300.727024072899</v>
       </c>
       <c r="Q30" t="n">
-        <v>1900.529542517484</v>
+        <v>1800.958320110243</v>
       </c>
       <c r="R30" t="n">
         <v>1900.529542517484</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>867.1179697746742</v>
+        <v>1021.273659753011</v>
       </c>
       <c r="C31" t="n">
-        <v>695.1454066535902</v>
+        <v>849.3010966319266</v>
       </c>
       <c r="D31" t="n">
-        <v>531.8286337803609</v>
+        <v>685.9843237586973</v>
       </c>
       <c r="E31" t="n">
-        <v>531.8286337803609</v>
+        <v>519.7761179115508</v>
       </c>
       <c r="F31" t="n">
-        <v>359.9668595549213</v>
+        <v>409.1166290737567</v>
       </c>
       <c r="G31" t="n">
-        <v>193.9517042789983</v>
+        <v>243.1014737978336</v>
       </c>
       <c r="H31" t="n">
-        <v>193.9517042789983</v>
+        <v>101.4551554186087</v>
       </c>
       <c r="I31" t="n">
         <v>101.4551554186087</v>
@@ -6648,25 +6648,25 @@
         <v>2516.82366728126</v>
       </c>
       <c r="S31" t="n">
-        <v>2350.902785818691</v>
+        <v>2516.82366728126</v>
       </c>
       <c r="T31" t="n">
-        <v>2108.596645153928</v>
+        <v>2274.517526616497</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.425386532223</v>
+        <v>1994.346267994792</v>
       </c>
       <c r="V31" t="n">
-        <v>1546.713919140252</v>
+        <v>1712.634800602821</v>
       </c>
       <c r="W31" t="n">
-        <v>1299.847835040935</v>
+        <v>1437.782396775334</v>
       </c>
       <c r="X31" t="n">
-        <v>1057.28393848674</v>
+        <v>1437.782396775334</v>
       </c>
       <c r="Y31" t="n">
-        <v>1057.28393848674</v>
+        <v>1211.439628465076</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2513.010936577463</v>
+        <v>2513.010936577464</v>
       </c>
       <c r="C32" t="n">
-        <v>2086.110206590763</v>
+        <v>2086.110206590764</v>
       </c>
       <c r="D32" t="n">
         <v>1662.817585775764</v>
       </c>
       <c r="E32" t="n">
-        <v>1236.840645923621</v>
+        <v>1236.840645923622</v>
       </c>
       <c r="F32" t="n">
         <v>811.7164641130216</v>
       </c>
       <c r="G32" t="n">
-        <v>407.9164854930792</v>
+        <v>407.9164854930796</v>
       </c>
       <c r="H32" t="n">
-        <v>115.5689988376875</v>
+        <v>115.5689988376876</v>
       </c>
       <c r="I32" t="n">
         <v>101.4551554186087</v>
@@ -6709,43 +6709,43 @@
         <v>2304.622937462657</v>
       </c>
       <c r="M32" t="n">
-        <v>2633.076814720287</v>
+        <v>2633.076814720289</v>
       </c>
       <c r="N32" t="n">
-        <v>2690.4458742195</v>
+        <v>2690.445874219502</v>
       </c>
       <c r="O32" t="n">
-        <v>3624.612570270172</v>
+        <v>3624.612570270174</v>
       </c>
       <c r="P32" t="n">
-        <v>4408.870106005807</v>
+        <v>4408.870106005809</v>
       </c>
       <c r="Q32" t="n">
-        <v>4922.012092007715</v>
+        <v>4922.012092007717</v>
       </c>
       <c r="R32" t="n">
-        <v>5072.757770930434</v>
+        <v>5072.757770930436</v>
       </c>
       <c r="S32" t="n">
-        <v>4980.674848682075</v>
+        <v>4980.674848682077</v>
       </c>
       <c r="T32" t="n">
-        <v>4762.109117020099</v>
+        <v>4762.1091170201</v>
       </c>
       <c r="U32" t="n">
-        <v>4503.797334319759</v>
+        <v>4503.797334319761</v>
       </c>
       <c r="V32" t="n">
-        <v>4146.307919446009</v>
+        <v>4146.30791944601</v>
       </c>
       <c r="W32" t="n">
         <v>3749.916569746356</v>
       </c>
       <c r="X32" t="n">
-        <v>3338.196570914103</v>
+        <v>3338.196570914104</v>
       </c>
       <c r="Y32" t="n">
-        <v>2932.859300868993</v>
+        <v>2932.859300868994</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>101.4551554186087</v>
       </c>
       <c r="I33" t="n">
-        <v>101.4551554186087</v>
+        <v>118.6349512296251</v>
       </c>
       <c r="J33" t="n">
-        <v>399.8611600513921</v>
+        <v>417.0409558624085</v>
       </c>
       <c r="K33" t="n">
-        <v>423.3350253647336</v>
+        <v>1053.174989239089</v>
       </c>
       <c r="L33" t="n">
-        <v>796.6347831349785</v>
+        <v>1092.265910945495</v>
       </c>
       <c r="M33" t="n">
-        <v>845.3975360446868</v>
+        <v>1171.582717705049</v>
       </c>
       <c r="N33" t="n">
-        <v>897.7922987246243</v>
+        <v>1223.977480384987</v>
       </c>
       <c r="O33" t="n">
-        <v>1854.534002545697</v>
+        <v>1268.297735369588</v>
       </c>
       <c r="P33" t="n">
-        <v>1886.963291249008</v>
+        <v>1300.727024072899</v>
       </c>
       <c r="Q33" t="n">
-        <v>1900.529542517484</v>
+        <v>1800.958320110243</v>
       </c>
       <c r="R33" t="n">
         <v>1900.529542517484</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>612.7888817362468</v>
+        <v>887.6412855637338</v>
       </c>
       <c r="C34" t="n">
-        <v>440.8163186151628</v>
+        <v>715.6687224426498</v>
       </c>
       <c r="D34" t="n">
-        <v>440.8163186151628</v>
+        <v>552.3519495694205</v>
       </c>
       <c r="E34" t="n">
-        <v>439.3320849199713</v>
+        <v>552.3519495694205</v>
       </c>
       <c r="F34" t="n">
-        <v>267.4703106945317</v>
+        <v>409.1166290737567</v>
       </c>
       <c r="G34" t="n">
-        <v>101.4551554186087</v>
+        <v>243.1014737978337</v>
       </c>
       <c r="H34" t="n">
         <v>101.4551554186087</v>
@@ -6858,7 +6858,7 @@
         <v>101.4551554186087</v>
       </c>
       <c r="J34" t="n">
-        <v>175.7025478570164</v>
+        <v>175.7025478570165</v>
       </c>
       <c r="K34" t="n">
         <v>429.7655098264015</v>
@@ -6897,13 +6897,13 @@
         <v>1546.713919140252</v>
       </c>
       <c r="W34" t="n">
-        <v>1271.861515312765</v>
+        <v>1546.713919140252</v>
       </c>
       <c r="X34" t="n">
-        <v>1029.29761875857</v>
+        <v>1304.150022586058</v>
       </c>
       <c r="Y34" t="n">
-        <v>802.9548504483125</v>
+        <v>1077.8072542758</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2340.852051593505</v>
+        <v>2340.852051593506</v>
       </c>
       <c r="C35" t="n">
         <v>1939.049026779728</v>
@@ -6925,7 +6925,7 @@
         <v>1139.97487645843</v>
       </c>
       <c r="F35" t="n">
-        <v>739.9483998207519</v>
+        <v>739.948399820752</v>
       </c>
       <c r="G35" t="n">
         <v>361.2461263737316</v>
@@ -6937,28 +6937,28 @@
         <v>93.99634489126198</v>
       </c>
       <c r="J35" t="n">
-        <v>109.7141420225476</v>
+        <v>501.4433607301738</v>
       </c>
       <c r="K35" t="n">
-        <v>892.4313174810941</v>
+        <v>1284.16053618872</v>
       </c>
       <c r="L35" t="n">
-        <v>1905.434908227684</v>
+        <v>1329.610157307737</v>
       </c>
       <c r="M35" t="n">
-        <v>3002.495704201209</v>
+        <v>2426.670953281262</v>
       </c>
       <c r="N35" t="n">
-        <v>4073.022648793224</v>
+        <v>2484.040012780474</v>
       </c>
       <c r="O35" t="n">
-        <v>4639.745517538347</v>
+        <v>3418.206708831146</v>
       </c>
       <c r="P35" t="n">
-        <v>4678.524165923926</v>
+        <v>4202.464244566781</v>
       </c>
       <c r="Q35" t="n">
-        <v>4699.817244563099</v>
+        <v>4549.07156564038</v>
       </c>
       <c r="R35" t="n">
         <v>4699.817244563099</v>
@@ -6967,7 +6967,7 @@
         <v>4632.832027487662</v>
       </c>
       <c r="T35" t="n">
-        <v>4439.364000998608</v>
+        <v>4439.364000998607</v>
       </c>
       <c r="U35" t="n">
         <v>4206.149923471191</v>
@@ -7028,16 +7028,16 @@
         <v>824.2875650472492</v>
       </c>
       <c r="N36" t="n">
-        <v>1216.51866985764</v>
+        <v>876.6823277271867</v>
       </c>
       <c r="O36" t="n">
-        <v>1260.838924842242</v>
+        <v>921.0025827117882</v>
       </c>
       <c r="P36" t="n">
-        <v>1293.268213545552</v>
+        <v>1691.182721246377</v>
       </c>
       <c r="Q36" t="n">
-        <v>1793.499509582897</v>
+        <v>1893.070731990138</v>
       </c>
       <c r="R36" t="n">
         <v>1893.070731990138</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>991.829747263244</v>
+        <v>991.8297472632441</v>
       </c>
       <c r="C37" t="n">
-        <v>844.9548893150821</v>
+        <v>844.9548893150823</v>
       </c>
       <c r="D37" t="n">
-        <v>706.735821614775</v>
+        <v>706.7358216147751</v>
       </c>
       <c r="E37" t="n">
-        <v>565.6253209405506</v>
+        <v>565.6253209405508</v>
       </c>
       <c r="F37" t="n">
-        <v>418.8612518880332</v>
+        <v>418.8612518880333</v>
       </c>
       <c r="G37" t="n">
         <v>277.9438017850323</v>
@@ -7113,7 +7113,7 @@
         <v>2190.845013309439</v>
       </c>
       <c r="P37" t="n">
-        <v>2534.706839717506</v>
+        <v>2534.706839717505</v>
       </c>
       <c r="Q37" t="n">
         <v>2706.15094347376</v>
@@ -7125,7 +7125,7 @@
         <v>2554.259715135233</v>
       </c>
       <c r="T37" t="n">
-        <v>2337.051279643393</v>
+        <v>2337.051279643392</v>
       </c>
       <c r="U37" t="n">
         <v>2081.97772619461</v>
@@ -7137,10 +7137,10 @@
         <v>1575.609265320996</v>
       </c>
       <c r="X37" t="n">
-        <v>1358.143073939723</v>
+        <v>1358.143073939724</v>
       </c>
       <c r="Y37" t="n">
-        <v>1156.898010802387</v>
+        <v>1156.898010802388</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2340.852051593506</v>
+        <v>2340.852051593505</v>
       </c>
       <c r="C38" t="n">
         <v>1939.049026779728</v>
@@ -7168,37 +7168,37 @@
         <v>361.2461263737316</v>
       </c>
       <c r="H38" t="n">
-        <v>93.99634489126196</v>
+        <v>93.99634489126198</v>
       </c>
       <c r="I38" t="n">
-        <v>93.99634489126196</v>
+        <v>93.99634489126198</v>
       </c>
       <c r="J38" t="n">
         <v>501.4433607301738</v>
       </c>
       <c r="K38" t="n">
-        <v>1284.16053618872</v>
+        <v>986.6296860808845</v>
       </c>
       <c r="L38" t="n">
-        <v>2297.16412693531</v>
+        <v>1032.079307199901</v>
       </c>
       <c r="M38" t="n">
-        <v>3394.224922908835</v>
+        <v>2129.140103173426</v>
       </c>
       <c r="N38" t="n">
-        <v>3842.261634050894</v>
+        <v>3199.667047765441</v>
       </c>
       <c r="O38" t="n">
-        <v>3894.26663018829</v>
+        <v>3251.672043902837</v>
       </c>
       <c r="P38" t="n">
-        <v>4678.524165923925</v>
+        <v>4035.929579638472</v>
       </c>
       <c r="Q38" t="n">
-        <v>4699.817244563098</v>
+        <v>4549.07156564038</v>
       </c>
       <c r="R38" t="n">
-        <v>4699.817244563098</v>
+        <v>4699.817244563099</v>
       </c>
       <c r="S38" t="n">
         <v>4632.832027487661</v>
@@ -7219,7 +7219,7 @@
         <v>3115.842275584301</v>
       </c>
       <c r="Y38" t="n">
-        <v>2735.602710712113</v>
+        <v>2735.602710712114</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>658.0457233210102</v>
+        <v>658.0457233210103</v>
       </c>
       <c r="C39" t="n">
-        <v>540.539819838515</v>
+        <v>540.5398198385151</v>
       </c>
       <c r="D39" t="n">
-        <v>436.6998613538</v>
+        <v>436.6998613538001</v>
       </c>
       <c r="E39" t="n">
-        <v>331.9979276267372</v>
+        <v>331.9979276267373</v>
       </c>
       <c r="F39" t="n">
         <v>238.3520973096414</v>
@@ -7247,37 +7247,37 @@
         <v>144.5867607837019</v>
       </c>
       <c r="H39" t="n">
-        <v>93.99634489126196</v>
+        <v>93.99634489126198</v>
       </c>
       <c r="I39" t="n">
-        <v>93.99634489126196</v>
+        <v>93.99634489126198</v>
       </c>
       <c r="J39" t="n">
-        <v>100.2998570544543</v>
+        <v>392.4023495240454</v>
       </c>
       <c r="K39" t="n">
-        <v>123.7737223677957</v>
+        <v>415.8762148373868</v>
       </c>
       <c r="L39" t="n">
-        <v>162.8646440742012</v>
+        <v>454.9671365437923</v>
       </c>
       <c r="M39" t="n">
-        <v>211.6273969839095</v>
+        <v>503.7298894535006</v>
       </c>
       <c r="N39" t="n">
-        <v>1374.466704068123</v>
+        <v>556.124652133438</v>
       </c>
       <c r="O39" t="n">
-        <v>1847.07519201835</v>
+        <v>600.4449071180395</v>
       </c>
       <c r="P39" t="n">
-        <v>1879.504480721661</v>
+        <v>1370.625045652628</v>
       </c>
       <c r="Q39" t="n">
-        <v>1893.070731990137</v>
+        <v>1870.856341689973</v>
       </c>
       <c r="R39" t="n">
-        <v>1893.070731990137</v>
+        <v>1893.070731990138</v>
       </c>
       <c r="S39" t="n">
         <v>1817.104042933379</v>
@@ -7289,16 +7289,16 @@
         <v>1491.637483648634</v>
       </c>
       <c r="V39" t="n">
-        <v>1286.6643447879</v>
+        <v>1286.664344787901</v>
       </c>
       <c r="W39" t="n">
         <v>1090.142967621118</v>
       </c>
       <c r="X39" t="n">
-        <v>926.6656213877806</v>
+        <v>926.6656213877807</v>
       </c>
       <c r="Y39" t="n">
-        <v>786.9727327410729</v>
+        <v>786.9727327410731</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>991.829747263244</v>
+        <v>991.8297472632441</v>
       </c>
       <c r="C40" t="n">
-        <v>844.9548893150821</v>
+        <v>844.9548893150823</v>
       </c>
       <c r="D40" t="n">
-        <v>706.735821614775</v>
+        <v>706.7358216147751</v>
       </c>
       <c r="E40" t="n">
-        <v>565.6253209405506</v>
+        <v>565.6253209405508</v>
       </c>
       <c r="F40" t="n">
-        <v>418.8612518880332</v>
+        <v>418.8612518880333</v>
       </c>
       <c r="G40" t="n">
         <v>277.9438017850323</v>
@@ -7329,7 +7329,7 @@
         <v>161.3951885787295</v>
       </c>
       <c r="I40" t="n">
-        <v>93.99634489126196</v>
+        <v>93.99634489126198</v>
       </c>
       <c r="J40" t="n">
         <v>192.8419981696507</v>
@@ -7338,7 +7338,7 @@
         <v>471.5032209790166</v>
       </c>
       <c r="L40" t="n">
-        <v>886.0265847978519</v>
+        <v>886.0265847978518</v>
       </c>
       <c r="M40" t="n">
         <v>1338.961831973174</v>
@@ -7350,7 +7350,7 @@
         <v>2190.845013309439</v>
       </c>
       <c r="P40" t="n">
-        <v>2534.706839717506</v>
+        <v>2534.706839717505</v>
       </c>
       <c r="Q40" t="n">
         <v>2706.15094347376</v>
@@ -7362,7 +7362,7 @@
         <v>2554.259715135233</v>
       </c>
       <c r="T40" t="n">
-        <v>2337.051279643393</v>
+        <v>2337.051279643392</v>
       </c>
       <c r="U40" t="n">
         <v>2081.97772619461</v>
@@ -7374,10 +7374,10 @@
         <v>1575.609265320996</v>
       </c>
       <c r="X40" t="n">
-        <v>1358.143073939723</v>
+        <v>1358.143073939724</v>
       </c>
       <c r="Y40" t="n">
-        <v>1156.898010802387</v>
+        <v>1156.898010802388</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2340.852051593505</v>
+        <v>2340.852051593506</v>
       </c>
       <c r="C41" t="n">
-        <v>1939.049026779727</v>
+        <v>1939.049026779728</v>
       </c>
       <c r="D41" t="n">
         <v>1540.85411113765</v>
@@ -7399,64 +7399,64 @@
         <v>1139.97487645843</v>
       </c>
       <c r="F41" t="n">
-        <v>739.9483998207519</v>
+        <v>739.948399820752</v>
       </c>
       <c r="G41" t="n">
         <v>361.2461263737316</v>
       </c>
       <c r="H41" t="n">
-        <v>93.99634489126196</v>
+        <v>93.99634489126198</v>
       </c>
       <c r="I41" t="n">
-        <v>93.99634489126196</v>
+        <v>93.99634489126198</v>
       </c>
       <c r="J41" t="n">
-        <v>109.7141420225476</v>
+        <v>501.4433607301738</v>
       </c>
       <c r="K41" t="n">
-        <v>141.5160547187338</v>
+        <v>1284.16053618872</v>
       </c>
       <c r="L41" t="n">
-        <v>1154.519645465324</v>
+        <v>2297.16412693531</v>
       </c>
       <c r="M41" t="n">
-        <v>2251.580441438849</v>
+        <v>2352.881871219339</v>
       </c>
       <c r="N41" t="n">
-        <v>3322.107386030863</v>
+        <v>3199.667047765441</v>
       </c>
       <c r="O41" t="n">
-        <v>4256.274082081535</v>
+        <v>3251.672043902837</v>
       </c>
       <c r="P41" t="n">
-        <v>4678.524165923925</v>
+        <v>4035.929579638472</v>
       </c>
       <c r="Q41" t="n">
-        <v>4699.817244563098</v>
+        <v>4549.07156564038</v>
       </c>
       <c r="R41" t="n">
-        <v>4699.817244563098</v>
+        <v>4699.817244563099</v>
       </c>
       <c r="S41" t="n">
-        <v>4632.832027487661</v>
+        <v>4632.832027487662</v>
       </c>
       <c r="T41" t="n">
-        <v>4439.364000998607</v>
+        <v>4439.364000998608</v>
       </c>
       <c r="U41" t="n">
-        <v>4206.14992347119</v>
+        <v>4206.149923471192</v>
       </c>
       <c r="V41" t="n">
-        <v>3873.758213770362</v>
+        <v>3873.758213770363</v>
       </c>
       <c r="W41" t="n">
-        <v>3502.464569243631</v>
+        <v>3502.464569243632</v>
       </c>
       <c r="X41" t="n">
-        <v>3115.8422755843</v>
+        <v>3115.842275584301</v>
       </c>
       <c r="Y41" t="n">
-        <v>2735.602710712113</v>
+        <v>2735.602710712114</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>658.0457233210102</v>
+        <v>658.0457233210103</v>
       </c>
       <c r="C42" t="n">
-        <v>540.539819838515</v>
+        <v>540.5398198385151</v>
       </c>
       <c r="D42" t="n">
-        <v>436.6998613538</v>
+        <v>436.6998613538001</v>
       </c>
       <c r="E42" t="n">
-        <v>331.9979276267372</v>
+        <v>331.9979276267373</v>
       </c>
       <c r="F42" t="n">
         <v>238.3520973096414</v>
@@ -7484,37 +7484,37 @@
         <v>144.5867607837019</v>
       </c>
       <c r="H42" t="n">
-        <v>93.99634489126196</v>
+        <v>93.99634489126198</v>
       </c>
       <c r="I42" t="n">
-        <v>93.99634489126196</v>
+        <v>111.1761407022783</v>
       </c>
       <c r="J42" t="n">
-        <v>100.2998570544543</v>
+        <v>409.5821453350618</v>
       </c>
       <c r="K42" t="n">
-        <v>123.7737223677957</v>
+        <v>1045.716178711743</v>
       </c>
       <c r="L42" t="n">
-        <v>1021.953388004195</v>
+        <v>1084.807100418148</v>
       </c>
       <c r="M42" t="n">
-        <v>1070.716140913903</v>
+        <v>1164.123907177703</v>
       </c>
       <c r="N42" t="n">
-        <v>1802.754937033749</v>
+        <v>1216.51866985764</v>
       </c>
       <c r="O42" t="n">
-        <v>1847.07519201835</v>
+        <v>1260.838924842242</v>
       </c>
       <c r="P42" t="n">
-        <v>1879.504480721661</v>
+        <v>1293.268213545552</v>
       </c>
       <c r="Q42" t="n">
-        <v>1893.070731990137</v>
+        <v>1793.499509582897</v>
       </c>
       <c r="R42" t="n">
-        <v>1893.070731990137</v>
+        <v>1893.070731990138</v>
       </c>
       <c r="S42" t="n">
         <v>1817.104042933379</v>
@@ -7526,16 +7526,16 @@
         <v>1491.637483648634</v>
       </c>
       <c r="V42" t="n">
-        <v>1286.6643447879</v>
+        <v>1286.664344787901</v>
       </c>
       <c r="W42" t="n">
         <v>1090.142967621118</v>
       </c>
       <c r="X42" t="n">
-        <v>926.6656213877806</v>
+        <v>926.6656213877807</v>
       </c>
       <c r="Y42" t="n">
-        <v>786.9727327410729</v>
+        <v>786.9727327410731</v>
       </c>
     </row>
     <row r="43">
@@ -7560,13 +7560,13 @@
         <v>418.8612518880333</v>
       </c>
       <c r="G43" t="n">
-        <v>277.9438017850324</v>
+        <v>277.9438017850323</v>
       </c>
       <c r="H43" t="n">
         <v>161.3951885787295</v>
       </c>
       <c r="I43" t="n">
-        <v>93.99634489126196</v>
+        <v>93.99634489126198</v>
       </c>
       <c r="J43" t="n">
         <v>192.8419981696507</v>
@@ -7624,64 +7624,64 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2340.852051593505</v>
+        <v>2340.852051593506</v>
       </c>
       <c r="C44" t="n">
-        <v>1939.049026779727</v>
+        <v>1939.049026779728</v>
       </c>
       <c r="D44" t="n">
-        <v>1540.85411113765</v>
+        <v>1540.854111137651</v>
       </c>
       <c r="E44" t="n">
-        <v>1139.974876458429</v>
+        <v>1139.97487645843</v>
       </c>
       <c r="F44" t="n">
-        <v>739.948399820752</v>
+        <v>739.9483998207527</v>
       </c>
       <c r="G44" t="n">
-        <v>361.2461263737316</v>
+        <v>361.2461263737324</v>
       </c>
       <c r="H44" t="n">
-        <v>93.99634489126196</v>
+        <v>93.99634489126198</v>
       </c>
       <c r="I44" t="n">
-        <v>93.99634489126196</v>
+        <v>93.99634489126198</v>
       </c>
       <c r="J44" t="n">
-        <v>109.7141420225476</v>
+        <v>501.4433607301738</v>
       </c>
       <c r="K44" t="n">
-        <v>892.4313174810941</v>
+        <v>1284.16053618872</v>
       </c>
       <c r="L44" t="n">
-        <v>1905.434908227684</v>
+        <v>2297.16412693531</v>
       </c>
       <c r="M44" t="n">
-        <v>3002.495704201209</v>
+        <v>2352.881871219339</v>
       </c>
       <c r="N44" t="n">
-        <v>4073.022648793224</v>
+        <v>2410.250930718551</v>
       </c>
       <c r="O44" t="n">
-        <v>4639.745517538347</v>
+        <v>3344.417626769224</v>
       </c>
       <c r="P44" t="n">
-        <v>4678.524165923925</v>
+        <v>4035.929579638472</v>
       </c>
       <c r="Q44" t="n">
-        <v>4699.817244563098</v>
+        <v>4549.07156564038</v>
       </c>
       <c r="R44" t="n">
-        <v>4699.817244563098</v>
+        <v>4699.817244563099</v>
       </c>
       <c r="S44" t="n">
-        <v>4632.832027487661</v>
+        <v>4632.832027487662</v>
       </c>
       <c r="T44" t="n">
-        <v>4439.364000998607</v>
+        <v>4439.364000998608</v>
       </c>
       <c r="U44" t="n">
-        <v>4206.149923471191</v>
+        <v>4206.149923471192</v>
       </c>
       <c r="V44" t="n">
         <v>3873.758213770363</v>
@@ -7690,10 +7690,10 @@
         <v>3502.464569243632</v>
       </c>
       <c r="X44" t="n">
-        <v>3115.842275584301</v>
+        <v>3115.842275584302</v>
       </c>
       <c r="Y44" t="n">
-        <v>2735.602710712113</v>
+        <v>2735.602710712114</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>658.0457233210102</v>
+        <v>658.0457233210103</v>
       </c>
       <c r="C45" t="n">
-        <v>540.539819838515</v>
+        <v>540.5398198385151</v>
       </c>
       <c r="D45" t="n">
-        <v>436.6998613538</v>
+        <v>436.6998613538001</v>
       </c>
       <c r="E45" t="n">
-        <v>331.9979276267372</v>
+        <v>331.9979276267373</v>
       </c>
       <c r="F45" t="n">
         <v>238.3520973096414</v>
@@ -7721,37 +7721,37 @@
         <v>144.5867607837019</v>
       </c>
       <c r="H45" t="n">
-        <v>93.99634489126196</v>
+        <v>93.99634489126198</v>
       </c>
       <c r="I45" t="n">
-        <v>93.99634489126196</v>
+        <v>93.99634489126198</v>
       </c>
       <c r="J45" t="n">
-        <v>100.2998570544543</v>
+        <v>392.4023495240454</v>
       </c>
       <c r="K45" t="n">
-        <v>123.7737223677957</v>
+        <v>415.8762148373868</v>
       </c>
       <c r="L45" t="n">
-        <v>162.8646440742012</v>
+        <v>454.9671365437923</v>
       </c>
       <c r="M45" t="n">
-        <v>639.9156299495355</v>
+        <v>503.7298894535006</v>
       </c>
       <c r="N45" t="n">
-        <v>1802.754937033749</v>
+        <v>556.124652133438</v>
       </c>
       <c r="O45" t="n">
-        <v>1847.07519201835</v>
+        <v>600.4449071180395</v>
       </c>
       <c r="P45" t="n">
-        <v>1879.504480721661</v>
+        <v>1370.625045652628</v>
       </c>
       <c r="Q45" t="n">
-        <v>1893.070731990137</v>
+        <v>1870.856341689973</v>
       </c>
       <c r="R45" t="n">
-        <v>1893.070731990137</v>
+        <v>1893.070731990138</v>
       </c>
       <c r="S45" t="n">
         <v>1817.104042933379</v>
@@ -7763,16 +7763,16 @@
         <v>1491.637483648634</v>
       </c>
       <c r="V45" t="n">
-        <v>1286.6643447879</v>
+        <v>1286.664344787901</v>
       </c>
       <c r="W45" t="n">
         <v>1090.142967621118</v>
       </c>
       <c r="X45" t="n">
-        <v>926.6656213877806</v>
+        <v>926.6656213877807</v>
       </c>
       <c r="Y45" t="n">
-        <v>786.9727327410729</v>
+        <v>786.9727327410731</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>991.829747263244</v>
+        <v>991.8297472632441</v>
       </c>
       <c r="C46" t="n">
-        <v>844.9548893150821</v>
+        <v>844.9548893150823</v>
       </c>
       <c r="D46" t="n">
-        <v>706.735821614775</v>
+        <v>706.7358216147751</v>
       </c>
       <c r="E46" t="n">
-        <v>565.6253209405506</v>
+        <v>565.6253209405508</v>
       </c>
       <c r="F46" t="n">
-        <v>418.8612518880332</v>
+        <v>418.8612518880333</v>
       </c>
       <c r="G46" t="n">
         <v>277.9438017850323</v>
@@ -7803,7 +7803,7 @@
         <v>161.3951885787295</v>
       </c>
       <c r="I46" t="n">
-        <v>93.99634489126196</v>
+        <v>93.99634489126198</v>
       </c>
       <c r="J46" t="n">
         <v>192.8419981696507</v>
@@ -7830,10 +7830,10 @@
         <v>2706.15094347376</v>
       </c>
       <c r="R46" t="n">
-        <v>2695.082891424879</v>
+        <v>2695.08289142488</v>
       </c>
       <c r="S46" t="n">
-        <v>2554.259715135232</v>
+        <v>2554.259715135233</v>
       </c>
       <c r="T46" t="n">
         <v>2337.051279643392</v>
@@ -7851,7 +7851,7 @@
         <v>1358.143073939723</v>
       </c>
       <c r="Y46" t="n">
-        <v>1156.898010802387</v>
+        <v>1156.898010802388</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>56.40025708778723</v>
       </c>
       <c r="K2" t="n">
         <v>35.76460079480934</v>
@@ -7990,7 +7990,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>64.25992043664672</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
@@ -8060,16 +8060,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>49.37953143553405</v>
       </c>
       <c r="L3" t="n">
-        <v>49.49538431643026</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>51.21309064514766</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>49.45933834636135</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
         <v>51.28819985504191</v>
@@ -8078,10 +8078,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>50.86334842179818</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>51.78922952696383</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8148,7 +8148,7 @@
         <v>22.57543989148582</v>
       </c>
       <c r="N4" t="n">
-        <v>47.7291985778011</v>
+        <v>48.86521110842008</v>
       </c>
       <c r="O4" t="n">
         <v>50.61549763124414</v>
@@ -8157,7 +8157,7 @@
         <v>50.49711079080617</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.73587289760464</v>
+        <v>51.59986036698565</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>56.40025708778723</v>
+        <v>57.53626961840621</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>63.88091092762902</v>
       </c>
       <c r="L5" t="n">
-        <v>66.42835256544261</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
@@ -8230,16 +8230,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>65.50726948884378</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>64.55565941243201</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>64.24098473741773</v>
       </c>
       <c r="R5" t="n">
-        <v>63.14896002761616</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,19 +8291,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>40.06955035784532</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>49.49538431643026</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>51.21309064514766</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
@@ -8318,7 +8318,7 @@
         <v>50.86334842179818</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>51.78922952696383</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,16 +8373,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>47.61705358610257</v>
+        <v>48.75306611672156</v>
       </c>
       <c r="K7" t="n">
-        <v>49.08096458553168</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L7" t="n">
         <v>50.03507002852091</v>
       </c>
       <c r="M7" t="n">
-        <v>50.69175002430551</v>
+        <v>22.57543989148582</v>
       </c>
       <c r="N7" t="n">
         <v>20.74890097560039</v>
@@ -8391,10 +8391,10 @@
         <v>22.49918749842445</v>
       </c>
       <c r="P7" t="n">
-        <v>22.38080065798648</v>
+        <v>49.36109826018719</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.61956276478495</v>
+        <v>52.73587289760464</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>56.40025708778723</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>66.42835256544261</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>64.41156050163252</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>65.39593296726571</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>65.50726948884378</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>64.24098473741773</v>
       </c>
       <c r="R8" t="n">
         <v>63.14896002761616</v>
@@ -8534,25 +8534,25 @@
         <v>48.72742446615302</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>50.51554396615302</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>41.97352273874154</v>
       </c>
       <c r="M9" t="n">
-        <v>51.21309064514766</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>49.45933834636135</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>42.63032574673421</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>50.86334842179818</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8610,16 +8610,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>48.75306611672156</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K10" t="n">
         <v>20.964654452712</v>
       </c>
       <c r="L10" t="n">
-        <v>21.91875989570122</v>
+        <v>50.03507002852091</v>
       </c>
       <c r="M10" t="n">
-        <v>50.69175002430551</v>
+        <v>22.57543989148582</v>
       </c>
       <c r="N10" t="n">
         <v>47.7291985778011</v>
@@ -8631,7 +8631,7 @@
         <v>22.38080065798648</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.61956276478495</v>
+        <v>52.73587289760464</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>387.3448842998095</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>664.8178584807814</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>1.508059954578023</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>131.4396729869567</v>
       </c>
       <c r="N12" t="n">
-        <v>522.4435339582971</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>5.94371502794414</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>387.3448842998095</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>58.58595561245701</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>1.508059954578023</v>
@@ -9014,13 +9014,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>30.86268065641038</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>30.86268065641029</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>664.817858480781</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9175,13 +9175,13 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>659.3265701855248</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
@@ -9245,16 +9245,16 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>618.848654609434</v>
+        <v>36.98436170585263</v>
       </c>
       <c r="L18" t="n">
-        <v>48.21600975844709</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9403,22 +9403,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>532.4984795115626</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>659.326570185525</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>6.340919225652023</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>623.0205262888435</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>391.4561019902201</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>5.94371502794414</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>611.6631492265946</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>891.0724241548241</v>
+        <v>797.3900172190801</v>
       </c>
       <c r="P23" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>1.508059954578023</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9728,13 +9728,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>30.8626806564104</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>30.8626806564103</v>
       </c>
       <c r="Q24" t="n">
         <v>491.5808533018869</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>331.7511588776383</v>
+        <v>973.9145777827578</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9889,16 +9889,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>1.508059954578023</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,25 +9950,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>6.340919225652023</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>962.1176870644376</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>30.86268065641029</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>756.5183346432322</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>689.074056496257</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>1.508059954578023</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,19 +10187,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>6.340919225652023</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>67.66047007734264</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>867.7664080100944</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>30.86268065641038</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>5.94371502794414</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>275.491043407678</v>
+        <v>275.4910434076799</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>6.340919225652023</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>337.5846828927671</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>30.86268065641038</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>5.94371502794414</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>519.9170430381083</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>328.6002448832585</v>
       </c>
       <c r="R35" t="n">
-        <v>1.508059954578023</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10676,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>343.2690324550038</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>190.2239994699841</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>5.94371502794414</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,16 +10825,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>758.5002654165255</v>
+        <v>457.9640531863885</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>394.6137895382288</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10843,10 +10843,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>1.508059954578023</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>6.340919225652023</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10913,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>432.6143767329556</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>5.94371502794414</v>
+        <v>28.38249310891861</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>797.3900172190799</v>
       </c>
       <c r="O41" t="n">
-        <v>891.0724241548241</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>387.3448842998097</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>1.508059954578023</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,22 +11135,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>6.340919225652023</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>30.86268065641038</v>
       </c>
       <c r="N42" t="n">
-        <v>686.5091246867765</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>5.94371502794414</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
@@ -11305,22 +11305,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>519.9170430381074</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>659.326570185525</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>1.508059954578023</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>6.340919225652023</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11384,22 +11384,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>432.6143767329556</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1121.661155963915</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>5.94371502794414</v>
+        <v>28.38249310891861</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>60.07920971910571</v>
       </c>
       <c r="G28" t="n">
-        <v>164.3550037231638</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>136.0890652585263</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>91.57158337178572</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>60.59026253376895</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2298551954327</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>91.57158337178572</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>35.80409964958464</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>164.2616726479432</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>27.70645653088755</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>163.0767324304354</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>28.34018919247802</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2298551954327</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>91.57158337178572</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>589705.0415113559</v>
+        <v>589705.041511356</v>
       </c>
     </row>
     <row r="12">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>567881.601310884</v>
+        <v>567881.6013108841</v>
       </c>
       <c r="C2" t="n">
-        <v>567881.6013108838</v>
+        <v>567881.6013108841</v>
       </c>
       <c r="D2" t="n">
+        <v>567881.6013108841</v>
+      </c>
+      <c r="E2" t="n">
+        <v>567881.6013108833</v>
+      </c>
+      <c r="F2" t="n">
+        <v>567881.6013108831</v>
+      </c>
+      <c r="G2" t="n">
+        <v>567881.6013108834</v>
+      </c>
+      <c r="H2" t="n">
         <v>567881.6013108839</v>
       </c>
-      <c r="E2" t="n">
-        <v>567881.601310883</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>567881.6013108827</v>
+      </c>
+      <c r="J2" t="n">
+        <v>554020.2398173575</v>
+      </c>
+      <c r="K2" t="n">
+        <v>554020.2398173581</v>
+      </c>
+      <c r="L2" t="n">
+        <v>554020.2398173579</v>
+      </c>
+      <c r="M2" t="n">
+        <v>567881.6013108833</v>
+      </c>
+      <c r="N2" t="n">
         <v>567881.6013108832</v>
       </c>
-      <c r="G2" t="n">
-        <v>567881.6013108841</v>
-      </c>
-      <c r="H2" t="n">
-        <v>567881.6013108834</v>
-      </c>
-      <c r="I2" t="n">
-        <v>567881.6013108832</v>
-      </c>
-      <c r="J2" t="n">
-        <v>554020.2398173576</v>
-      </c>
-      <c r="K2" t="n">
-        <v>554020.2398173576</v>
-      </c>
-      <c r="L2" t="n">
-        <v>554020.2398173577</v>
-      </c>
-      <c r="M2" t="n">
-        <v>567881.6013108834</v>
-      </c>
-      <c r="N2" t="n">
-        <v>567881.601310884</v>
-      </c>
       <c r="O2" t="n">
-        <v>567881.6013108832</v>
+        <v>567881.6013108833</v>
       </c>
       <c r="P2" t="n">
-        <v>567881.6013108833</v>
+        <v>567881.6013108843</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9422.422200640955</v>
+        <v>9422.422200640931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>468954.6458328828</v>
+        <v>468954.6458328829</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>31750.8766186052</v>
+        <v>31750.87661860538</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,28 +26423,28 @@
         <v>317613.7293869761</v>
       </c>
       <c r="D4" t="n">
-        <v>317613.729386976</v>
+        <v>317613.7293869761</v>
       </c>
       <c r="E4" t="n">
         <v>165887.7302101976</v>
       </c>
       <c r="F4" t="n">
-        <v>165887.7302101976</v>
+        <v>165887.7302101977</v>
       </c>
       <c r="G4" t="n">
         <v>165887.7302101977</v>
       </c>
       <c r="H4" t="n">
+        <v>165887.7302101976</v>
+      </c>
+      <c r="I4" t="n">
         <v>165887.7302101977</v>
       </c>
-      <c r="I4" t="n">
-        <v>165887.7302101976</v>
-      </c>
       <c r="J4" t="n">
-        <v>150132.9567992375</v>
+        <v>150132.9567992376</v>
       </c>
       <c r="K4" t="n">
-        <v>150132.9567992375</v>
+        <v>150132.9567992376</v>
       </c>
       <c r="L4" t="n">
         <v>150132.9567992376</v>
@@ -26456,7 +26456,7 @@
         <v>165887.7302101977</v>
       </c>
       <c r="O4" t="n">
-        <v>165887.7302101976</v>
+        <v>165887.7302101977</v>
       </c>
       <c r="P4" t="n">
         <v>165887.7302101976</v>
@@ -26478,10 +26478,10 @@
         <v>35337.07165607544</v>
       </c>
       <c r="E5" t="n">
-        <v>76420.14516304887</v>
+        <v>76420.14516304889</v>
       </c>
       <c r="F5" t="n">
-        <v>76420.14516304887</v>
+        <v>76420.14516304889</v>
       </c>
       <c r="G5" t="n">
         <v>76420.14516304887</v>
@@ -26493,25 +26493,25 @@
         <v>76420.14516304887</v>
       </c>
       <c r="J5" t="n">
-        <v>80000.00157741179</v>
+        <v>80000.00157741184</v>
       </c>
       <c r="K5" t="n">
-        <v>80000.00157741181</v>
+        <v>80000.00157741182</v>
       </c>
       <c r="L5" t="n">
-        <v>80000.00157741181</v>
+        <v>80000.00157741184</v>
       </c>
       <c r="M5" t="n">
         <v>76420.14516304887</v>
       </c>
       <c r="N5" t="n">
-        <v>76420.14516304886</v>
+        <v>76420.14516304887</v>
       </c>
       <c r="O5" t="n">
-        <v>76420.14516304886</v>
+        <v>76420.14516304887</v>
       </c>
       <c r="P5" t="n">
-        <v>76420.14516304886</v>
+        <v>76420.14516304887</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>205508.3780671915</v>
+        <v>205508.3780671917</v>
       </c>
       <c r="C6" t="n">
-        <v>214930.8002678322</v>
+        <v>214930.8002678326</v>
       </c>
       <c r="D6" t="n">
-        <v>214930.8002678324</v>
+        <v>214930.8002678326</v>
       </c>
       <c r="E6" t="n">
-        <v>-143380.9198952464</v>
+        <v>-143380.9198952461</v>
       </c>
       <c r="F6" t="n">
+        <v>325573.7259376366</v>
+      </c>
+      <c r="G6" t="n">
+        <v>325573.7259376369</v>
+      </c>
+      <c r="H6" t="n">
+        <v>325573.7259376374</v>
+      </c>
+      <c r="I6" t="n">
+        <v>325573.7259376362</v>
+      </c>
+      <c r="J6" t="n">
+        <v>292100.8628695552</v>
+      </c>
+      <c r="K6" t="n">
+        <v>323851.7394881612</v>
+      </c>
+      <c r="L6" t="n">
+        <v>323851.7394881609</v>
+      </c>
+      <c r="M6" t="n">
+        <v>43134.29397070751</v>
+      </c>
+      <c r="N6" t="n">
         <v>325573.7259376367</v>
       </c>
-      <c r="G6" t="n">
-        <v>325573.7259376376</v>
-      </c>
-      <c r="H6" t="n">
-        <v>325573.7259376369</v>
-      </c>
-      <c r="I6" t="n">
-        <v>325573.7259376367</v>
-      </c>
-      <c r="J6" t="n">
-        <v>292136.4048221032</v>
-      </c>
-      <c r="K6" t="n">
-        <v>323887.2814407083</v>
-      </c>
-      <c r="L6" t="n">
-        <v>323887.2814407084</v>
-      </c>
-      <c r="M6" t="n">
-        <v>43134.29397070757</v>
-      </c>
-      <c r="N6" t="n">
-        <v>325573.7259376375</v>
-      </c>
       <c r="O6" t="n">
-        <v>325573.7259376367</v>
+        <v>325573.7259376368</v>
       </c>
       <c r="P6" t="n">
-        <v>325573.7259376368</v>
+        <v>325573.7259376378</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="F2" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="G2" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="H2" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="I2" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26727,7 +26727,7 @@
         <v>24.8467281211929</v>
       </c>
       <c r="P2" t="n">
-        <v>24.8467281211929</v>
+        <v>24.84672812119289</v>
       </c>
     </row>
     <row r="3">
@@ -26813,7 +26813,7 @@
         <v>1174.954311140775</v>
       </c>
       <c r="J4" t="n">
-        <v>1268.189442732608</v>
+        <v>1268.189442732609</v>
       </c>
       <c r="K4" t="n">
         <v>1268.189442732609</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.84672812119284</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>121.3514417246533</v>
+        <v>121.351441724654</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27460,19 +27460,19 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C3" t="n">
-        <v>88.21453431485057</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D3" t="n">
-        <v>102.8015588998678</v>
+        <v>78.03671293488023</v>
       </c>
       <c r="E3" t="n">
-        <v>103.6549143897921</v>
+        <v>75.53860425697246</v>
       </c>
       <c r="F3" t="n">
-        <v>92.70937201392488</v>
+        <v>64.5930618811052</v>
       </c>
       <c r="G3" t="n">
-        <v>68.34838809958447</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
         <v>24.72602217249382</v>
@@ -27526,7 +27526,7 @@
         <v>161.8425727710037</v>
       </c>
       <c r="Y3" t="n">
-        <v>110.1796496274208</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="4">
@@ -27539,7 +27539,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>142.1365273570535</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -27554,10 +27554,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>114.2419956741075</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>70.65457244430709</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.803381214711</v>
+        <v>18.4519170468789</v>
       </c>
       <c r="S4" t="n">
-        <v>140.3173868732368</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>249.2662938818791</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -27602,7 +27602,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>215.3734116236654</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -27697,13 +27697,13 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C6" t="n">
-        <v>88.21453431485057</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D6" t="n">
-        <v>78.03671293488026</v>
+        <v>74.68524876704814</v>
       </c>
       <c r="E6" t="n">
-        <v>103.6549143897921</v>
+        <v>78.89006842480458</v>
       </c>
       <c r="F6" t="n">
         <v>64.5930618811052</v>
@@ -27785,7 +27785,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>142.0268463503655</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.803381214711</v>
+        <v>18.4519170468789</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>216.1411083313714</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>249.2662938818791</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>243.9875696563924</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>212.0219474558332</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>195.9630304943357</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -27931,25 +27931,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>99.52142919304239</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C9" t="n">
         <v>116.3308444476703</v>
       </c>
       <c r="D9" t="n">
-        <v>102.8015588998678</v>
+        <v>74.68524876704814</v>
       </c>
       <c r="E9" t="n">
-        <v>103.6549143897921</v>
+        <v>78.89006842480458</v>
       </c>
       <c r="F9" t="n">
-        <v>67.94452604893732</v>
+        <v>64.5930618811052</v>
       </c>
       <c r="G9" t="n">
-        <v>64.99692393175235</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H9" t="n">
-        <v>52.84233230531351</v>
+        <v>24.72602217249382</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27997,7 +27997,7 @@
         <v>194.556163395115</v>
       </c>
       <c r="X9" t="n">
-        <v>133.726262638184</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y9" t="n">
         <v>138.2959597602405</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>163.4994630599574</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>142.1365273570535</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
@@ -28025,13 +28025,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>136.4780898758905</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>117.5934598419396</v>
+        <v>114.2419956741075</v>
       </c>
       <c r="I10" t="n">
-        <v>70.65457244430709</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>18.4519170468789</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
@@ -28070,7 +28070,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>250.7780425852317</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="C11" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="D11" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="E11" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="F11" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="G11" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="H11" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="I11" t="n">
         <v>13.97270498488807</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="U11" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="V11" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="W11" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="X11" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="Y11" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="C13" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="D13" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="E13" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="F13" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="G13" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="H13" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="I13" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="J13" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="K13" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="L13" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="M13" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="N13" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="O13" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="P13" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="R13" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="S13" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="T13" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="U13" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="V13" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="W13" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="X13" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="Y13" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="C14" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="D14" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="E14" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="F14" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="G14" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="H14" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="I14" t="n">
         <v>13.97270498488807</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="U14" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="V14" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="W14" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="X14" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="Y14" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="C16" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="D16" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="E16" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="F16" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="G16" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="H16" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="I16" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="J16" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="K16" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="L16" t="n">
-        <v>24.84672812119288</v>
+        <v>24.84672812119226</v>
       </c>
       <c r="M16" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="N16" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="O16" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="P16" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="R16" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="S16" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="T16" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="U16" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="V16" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="W16" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="X16" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="Y16" t="n">
-        <v>24.84672812119288</v>
+        <v>24.8467281211929</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="C17" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="D17" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="E17" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="F17" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="G17" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="H17" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="I17" t="n">
         <v>13.97270498488807</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="U17" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="V17" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="W17" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="X17" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="Y17" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="C19" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="D19" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="E19" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="F19" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="G19" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="H19" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="I19" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="J19" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="K19" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="L19" t="n">
-        <v>24.84672812119271</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="M19" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="N19" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="O19" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="P19" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="Q19" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="R19" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="S19" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="T19" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="U19" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="V19" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="W19" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="X19" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="Y19" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="C20" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="D20" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="E20" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="F20" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="G20" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="H20" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="I20" t="n">
         <v>13.97270498488807</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="U20" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="V20" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="W20" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="X20" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="Y20" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="C22" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="D22" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="E22" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="F22" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="G22" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="H22" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="I22" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="J22" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="K22" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="L22" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="M22" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="N22" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="O22" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="P22" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="Q22" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="R22" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="S22" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="T22" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="U22" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="V22" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="W22" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="X22" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="Y22" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="C23" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="D23" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="E23" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="F23" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="G23" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="H23" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="I23" t="n">
         <v>13.97270498488807</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>24.84672812119289</v>
+        <v>24.84672812119328</v>
       </c>
       <c r="T23" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="U23" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="V23" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="W23" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="X23" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="Y23" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="C25" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="D25" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="E25" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="F25" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="G25" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="H25" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="I25" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="J25" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="K25" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="L25" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="M25" t="n">
-        <v>24.84672812119289</v>
+        <v>24.84672812119231</v>
       </c>
       <c r="N25" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="O25" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="P25" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="R25" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="S25" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="T25" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="U25" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="V25" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="W25" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="X25" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.84672812119289</v>
+        <v>24.8467281211929</v>
       </c>
     </row>
     <row r="26">
@@ -30410,7 +30410,7 @@
         <v>24.8467281211929</v>
       </c>
       <c r="L40" t="n">
-        <v>24.8467281211929</v>
+        <v>24.84672812119271</v>
       </c>
       <c r="M40" t="n">
         <v>24.8467281211929</v>
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>24.8467281211929</v>
+        <v>24.84672812119289</v>
       </c>
       <c r="C44" t="n">
-        <v>24.8467281211929</v>
+        <v>24.84672812119289</v>
       </c>
       <c r="D44" t="n">
-        <v>24.8467281211929</v>
+        <v>24.84672812119289</v>
       </c>
       <c r="E44" t="n">
-        <v>24.8467281211929</v>
+        <v>24.84672812119289</v>
       </c>
       <c r="F44" t="n">
-        <v>24.8467281211929</v>
+        <v>24.84672812119289</v>
       </c>
       <c r="G44" t="n">
-        <v>24.8467281211929</v>
+        <v>24.84672812119289</v>
       </c>
       <c r="H44" t="n">
-        <v>24.8467281211929</v>
+        <v>24.84672812119289</v>
       </c>
       <c r="I44" t="n">
         <v>13.97270498488807</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>24.8467281211929</v>
+        <v>24.84672812119289</v>
       </c>
       <c r="T44" t="n">
-        <v>24.8467281211929</v>
+        <v>24.84672812119289</v>
       </c>
       <c r="U44" t="n">
-        <v>24.8467281211929</v>
+        <v>24.84672812119289</v>
       </c>
       <c r="V44" t="n">
-        <v>24.8467281211929</v>
+        <v>24.84672812119289</v>
       </c>
       <c r="W44" t="n">
-        <v>24.8467281211929</v>
+        <v>24.84672812119289</v>
       </c>
       <c r="X44" t="n">
-        <v>24.8467281211929</v>
+        <v>24.84672812119289</v>
       </c>
       <c r="Y44" t="n">
-        <v>24.8467281211929</v>
+        <v>24.84672812119289</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.8467281211929</v>
+        <v>24.84672812119289</v>
       </c>
       <c r="C46" t="n">
-        <v>24.8467281211929</v>
+        <v>24.84672812119289</v>
       </c>
       <c r="D46" t="n">
-        <v>24.8467281211929</v>
+        <v>24.84672812119289</v>
       </c>
       <c r="E46" t="n">
-        <v>24.8467281211929</v>
+        <v>24.84672812119289</v>
       </c>
       <c r="F46" t="n">
-        <v>24.8467281211929</v>
+        <v>24.84672812119289</v>
       </c>
       <c r="G46" t="n">
-        <v>24.8467281211929</v>
+        <v>24.84672812119289</v>
       </c>
       <c r="H46" t="n">
-        <v>24.8467281211929</v>
+        <v>24.84672812119289</v>
       </c>
       <c r="I46" t="n">
-        <v>24.8467281211929</v>
+        <v>24.84672812119289</v>
       </c>
       <c r="J46" t="n">
-        <v>24.8467281211929</v>
+        <v>24.84672812119289</v>
       </c>
       <c r="K46" t="n">
-        <v>24.8467281211929</v>
+        <v>24.84672812119289</v>
       </c>
       <c r="L46" t="n">
-        <v>24.8467281211929</v>
+        <v>24.84672812119289</v>
       </c>
       <c r="M46" t="n">
-        <v>24.8467281211929</v>
+        <v>24.84672812119289</v>
       </c>
       <c r="N46" t="n">
-        <v>24.8467281211929</v>
+        <v>24.84672812119289</v>
       </c>
       <c r="O46" t="n">
-        <v>24.8467281211929</v>
+        <v>24.84672812119289</v>
       </c>
       <c r="P46" t="n">
-        <v>24.8467281211929</v>
+        <v>24.84672812119289</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.8467281211929</v>
+        <v>24.84672812119289</v>
       </c>
       <c r="R46" t="n">
-        <v>24.8467281211929</v>
+        <v>24.84672812119289</v>
       </c>
       <c r="S46" t="n">
-        <v>24.8467281211929</v>
+        <v>24.84672812119289</v>
       </c>
       <c r="T46" t="n">
-        <v>24.8467281211929</v>
+        <v>24.84672812119289</v>
       </c>
       <c r="U46" t="n">
-        <v>24.8467281211929</v>
+        <v>24.84672812119289</v>
       </c>
       <c r="V46" t="n">
-        <v>24.8467281211929</v>
+        <v>24.84672812119289</v>
       </c>
       <c r="W46" t="n">
-        <v>24.8467281211929</v>
+        <v>24.84672812119289</v>
       </c>
       <c r="X46" t="n">
-        <v>24.8467281211929</v>
+        <v>24.84672812119289</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.8467281211929</v>
+        <v>24.84672812119289</v>
       </c>
     </row>
   </sheetData>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>26.98029760220071</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34710,7 +34710,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>26.98029760220071</v>
       </c>
       <c r="L3" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>28.11631013281968</v>
@@ -34798,10 +34798,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34868,7 +34868,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>26.98029760220071</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="O4" t="n">
         <v>28.11631013281968</v>
@@ -34877,7 +34877,7 @@
         <v>28.11631013281968</v>
       </c>
       <c r="Q4" t="n">
-        <v>28.11631013281968</v>
+        <v>26.98029760220071</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>28.11631013281968</v>
+      </c>
+      <c r="K5" t="n">
+        <v>28.11631013281968</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>26.98029760220071</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="Q5" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>28.11631013281968</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
       <c r="R5" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,19 +35011,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>19.45843602451198</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35038,7 +35038,7 @@
         <v>28.11631013281968</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.98029760220071</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="K7" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>26.98029760220071</v>
+      </c>
+      <c r="Q7" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>26.98029760220071</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="M8" t="n">
-        <v>26.98029760220071</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>28.11631013281968</v>
@@ -35254,25 +35254,25 @@
         <v>28.11631013281968</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>19.45843602451199</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="N9" t="n">
-        <v>28.11631013281968</v>
-      </c>
-      <c r="O9" t="n">
-        <v>19.45843602451199</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,16 +35330,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
       <c r="M10" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>26.98029760220071</v>
@@ -35351,7 +35351,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>15.87656275887436</v>
+        <v>411.5626422615271</v>
       </c>
       <c r="K11" t="n">
-        <v>419.4680284373713</v>
+        <v>32.12314413756187</v>
       </c>
       <c r="L11" t="n">
         <v>1023.235950249081</v>
       </c>
       <c r="M11" t="n">
-        <v>1108.142218155075</v>
+        <v>721.0984082626285</v>
       </c>
       <c r="N11" t="n">
-        <v>1081.340348072742</v>
+        <v>57.94854494869971</v>
       </c>
       <c r="O11" t="n">
         <v>943.6027232835072</v>
       </c>
       <c r="P11" t="n">
-        <v>39.17035190462494</v>
+        <v>792.1793290258943</v>
       </c>
       <c r="Q11" t="n">
-        <v>21.50816024158848</v>
+        <v>518.3252383857654</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>152.2683625482009</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,10 +35497,10 @@
         <v>39.4857795014197</v>
       </c>
       <c r="M12" t="n">
-        <v>49.25530596940229</v>
+        <v>180.694978956359</v>
       </c>
       <c r="N12" t="n">
-        <v>575.3675366653046</v>
+        <v>52.92400270700748</v>
       </c>
       <c r="O12" t="n">
         <v>44.7679343278803</v>
@@ -35509,10 +35509,10 @@
         <v>32.756857276071</v>
       </c>
       <c r="Q12" t="n">
-        <v>13.70328410957228</v>
+        <v>505.2841374114592</v>
       </c>
       <c r="R12" t="n">
-        <v>100.5769923305466</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>99.84409422059464</v>
+        <v>99.84409422059467</v>
       </c>
       <c r="K13" t="n">
         <v>281.4759826357232</v>
@@ -35588,7 +35588,7 @@
         <v>347.3351781899663</v>
       </c>
       <c r="Q13" t="n">
-        <v>173.1758623800551</v>
+        <v>173.1758623800552</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>15.87656275887436</v>
+        <v>411.5626422615271</v>
       </c>
       <c r="K14" t="n">
-        <v>419.4680284373713</v>
+        <v>790.6234095540874</v>
       </c>
       <c r="L14" t="n">
         <v>1023.235950249081</v>
       </c>
       <c r="M14" t="n">
-        <v>1108.142218155075</v>
+        <v>56.28054978184703</v>
       </c>
       <c r="N14" t="n">
-        <v>1081.340348072742</v>
+        <v>116.5345005611567</v>
       </c>
       <c r="O14" t="n">
         <v>943.6027232835072</v>
       </c>
       <c r="P14" t="n">
-        <v>39.17035190462494</v>
+        <v>792.1793290258943</v>
       </c>
       <c r="Q14" t="n">
-        <v>21.50816024158848</v>
+        <v>518.3252383857654</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35734,13 +35734,13 @@
         <v>39.4857795014197</v>
       </c>
       <c r="M15" t="n">
-        <v>49.25530596940229</v>
+        <v>80.11798662581266</v>
       </c>
       <c r="N15" t="n">
         <v>52.92400270700748</v>
       </c>
       <c r="O15" t="n">
-        <v>75.63061498429059</v>
+        <v>44.7679343278803</v>
       </c>
       <c r="P15" t="n">
         <v>32.756857276071</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>99.84409422059464</v>
+        <v>99.84409422059467</v>
       </c>
       <c r="K16" t="n">
         <v>281.4759826357232</v>
       </c>
       <c r="L16" t="n">
-        <v>418.710468503874</v>
+        <v>418.7104685038734</v>
       </c>
       <c r="M16" t="n">
         <v>457.5103506821436</v>
@@ -35825,7 +35825,7 @@
         <v>347.3351781899663</v>
       </c>
       <c r="Q16" t="n">
-        <v>173.1758623800551</v>
+        <v>173.1758623800552</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>411.5626422615271</v>
       </c>
       <c r="K17" t="n">
-        <v>790.6234095540874</v>
+        <v>696.9410026183428</v>
       </c>
       <c r="L17" t="n">
         <v>1023.235950249081</v>
@@ -35895,13 +35895,13 @@
         <v>56.28054978184703</v>
       </c>
       <c r="N17" t="n">
-        <v>717.2751151342245</v>
+        <v>57.94854494869971</v>
       </c>
       <c r="O17" t="n">
         <v>943.6027232835072</v>
       </c>
       <c r="P17" t="n">
-        <v>39.17035190462494</v>
+        <v>792.1793290258943</v>
       </c>
       <c r="Q17" t="n">
         <v>518.3252383857654</v>
@@ -35965,16 +35965,16 @@
         <v>301.4202066997813</v>
       </c>
       <c r="K18" t="n">
-        <v>642.5596296734152</v>
+        <v>60.69533676983389</v>
       </c>
       <c r="L18" t="n">
-        <v>87.70178925986679</v>
+        <v>39.4857795014197</v>
       </c>
       <c r="M18" t="n">
         <v>49.25530596940229</v>
       </c>
       <c r="N18" t="n">
-        <v>52.92400270700748</v>
+        <v>1174.585158670923</v>
       </c>
       <c r="O18" t="n">
         <v>44.7679343278803</v>
@@ -35983,7 +35983,7 @@
         <v>32.756857276071</v>
       </c>
       <c r="Q18" t="n">
-        <v>505.2841374114592</v>
+        <v>13.70328410957228</v>
       </c>
       <c r="R18" t="n">
         <v>100.5769923305466</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>99.84409422059466</v>
+        <v>99.84409422059467</v>
       </c>
       <c r="K19" t="n">
         <v>281.4759826357232</v>
       </c>
       <c r="L19" t="n">
-        <v>418.7104685038739</v>
+        <v>418.710468503874</v>
       </c>
       <c r="M19" t="n">
         <v>457.5103506821436</v>
@@ -36062,7 +36062,7 @@
         <v>347.3351781899663</v>
       </c>
       <c r="Q19" t="n">
-        <v>173.1758623800551</v>
+        <v>173.1758623800552</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,22 +36123,22 @@
         <v>411.5626422615271</v>
       </c>
       <c r="K20" t="n">
-        <v>32.12314413756187</v>
+        <v>790.6234095540874</v>
       </c>
       <c r="L20" t="n">
         <v>1023.235950249081</v>
       </c>
       <c r="M20" t="n">
-        <v>588.7790292934096</v>
+        <v>56.28054978184703</v>
       </c>
       <c r="N20" t="n">
-        <v>1081.340348072742</v>
+        <v>57.94854494869971</v>
       </c>
       <c r="O20" t="n">
-        <v>52.53029912868298</v>
+        <v>943.6027232835072</v>
       </c>
       <c r="P20" t="n">
-        <v>792.1793290258943</v>
+        <v>698.49692209015</v>
       </c>
       <c r="Q20" t="n">
         <v>518.3252383857654</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>17.35332910203671</v>
       </c>
       <c r="J21" t="n">
         <v>301.4202066997813</v>
       </c>
       <c r="K21" t="n">
-        <v>23.71097506398125</v>
+        <v>642.5596296734152</v>
       </c>
       <c r="L21" t="n">
-        <v>907.2521875115141</v>
+        <v>662.5063057902631</v>
       </c>
       <c r="M21" t="n">
         <v>49.25530596940229</v>
@@ -36220,7 +36220,7 @@
         <v>32.756857276071</v>
       </c>
       <c r="Q21" t="n">
-        <v>405.1593860997924</v>
+        <v>13.70328410957228</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>99.84409422059466</v>
+        <v>99.84409422059467</v>
       </c>
       <c r="K22" t="n">
         <v>281.4759826357232</v>
@@ -36299,7 +36299,7 @@
         <v>347.3351781899663</v>
       </c>
       <c r="Q22" t="n">
-        <v>173.1758623800551</v>
+        <v>173.1758623800552</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>15.87656275887436</v>
+        <v>411.5626422615271</v>
       </c>
       <c r="K23" t="n">
-        <v>32.12314413756187</v>
+        <v>790.6234095540874</v>
       </c>
       <c r="L23" t="n">
-        <v>657.5718574276217</v>
+        <v>1023.235950249081</v>
       </c>
       <c r="M23" t="n">
-        <v>1108.142218155075</v>
+        <v>56.28054978184703</v>
       </c>
       <c r="N23" t="n">
-        <v>1081.340348072742</v>
+        <v>57.94854494869971</v>
       </c>
       <c r="O23" t="n">
-        <v>943.6027232835072</v>
+        <v>849.920316347763</v>
       </c>
       <c r="P23" t="n">
         <v>792.1793290258943</v>
       </c>
       <c r="Q23" t="n">
-        <v>21.50816024158848</v>
+        <v>518.3252383857654</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>152.2683625482009</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36448,13 +36448,13 @@
         <v>49.25530596940229</v>
       </c>
       <c r="N24" t="n">
-        <v>83.78668336341788</v>
+        <v>52.92400270700748</v>
       </c>
       <c r="O24" t="n">
         <v>44.7679343278803</v>
       </c>
       <c r="P24" t="n">
-        <v>32.756857276071</v>
+        <v>63.6195379324813</v>
       </c>
       <c r="Q24" t="n">
         <v>505.2841374114592</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>99.84409422059466</v>
+        <v>99.84409422059467</v>
       </c>
       <c r="K25" t="n">
         <v>281.4759826357232</v>
@@ -36524,7 +36524,7 @@
         <v>418.710468503874</v>
       </c>
       <c r="M25" t="n">
-        <v>457.5103506821436</v>
+        <v>457.510350682143</v>
       </c>
       <c r="N25" t="n">
         <v>442.7854452398393</v>
@@ -36536,7 +36536,7 @@
         <v>347.3351781899663</v>
       </c>
       <c r="Q25" t="n">
-        <v>173.1758623800551</v>
+        <v>173.1758623800552</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>15.87656275887436</v>
+        <v>411.5626422615271</v>
       </c>
       <c r="K26" t="n">
-        <v>32.12314413756187</v>
+        <v>790.6234095540874</v>
       </c>
       <c r="L26" t="n">
-        <v>377.6598670786655</v>
+        <v>1019.823285983785</v>
       </c>
       <c r="M26" t="n">
         <v>1108.142218155075</v>
@@ -36609,16 +36609,16 @@
         <v>1081.340348072742</v>
       </c>
       <c r="O26" t="n">
-        <v>943.6027232835072</v>
+        <v>52.53029912868298</v>
       </c>
       <c r="P26" t="n">
-        <v>792.1793290258943</v>
+        <v>39.17035190462494</v>
       </c>
       <c r="Q26" t="n">
         <v>518.3252383857654</v>
       </c>
       <c r="R26" t="n">
-        <v>152.2683625482009</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>17.35332910203671</v>
       </c>
       <c r="J27" t="n">
-        <v>6.367184003224601</v>
+        <v>301.4202066997813</v>
       </c>
       <c r="K27" t="n">
-        <v>23.71097506398125</v>
+        <v>642.5596296734152</v>
       </c>
       <c r="L27" t="n">
         <v>39.4857795014197</v>
       </c>
       <c r="M27" t="n">
-        <v>1011.37299303384</v>
+        <v>49.25530596940229</v>
       </c>
       <c r="N27" t="n">
         <v>52.92400270700748</v>
       </c>
       <c r="O27" t="n">
-        <v>44.7679343278803</v>
+        <v>75.63061498429059</v>
       </c>
       <c r="P27" t="n">
         <v>32.756857276071</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>15.87656275887436</v>
+        <v>411.5626422615271</v>
       </c>
       <c r="K29" t="n">
-        <v>788.641478780794</v>
+        <v>32.12314413756187</v>
       </c>
       <c r="L29" t="n">
-        <v>1023.235950249081</v>
+        <v>45.90870820102717</v>
       </c>
       <c r="M29" t="n">
         <v>1108.142218155075</v>
@@ -36849,13 +36849,13 @@
         <v>943.6027232835072</v>
       </c>
       <c r="P29" t="n">
-        <v>39.17035190462494</v>
+        <v>728.2444084008819</v>
       </c>
       <c r="Q29" t="n">
-        <v>21.50816024158848</v>
+        <v>518.3252383857654</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>152.2683625482009</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>17.35332910203671</v>
       </c>
       <c r="J30" t="n">
-        <v>74.02765408056723</v>
+        <v>301.4202066997813</v>
       </c>
       <c r="K30" t="n">
         <v>642.5596296734152</v>
       </c>
       <c r="L30" t="n">
-        <v>907.2521875115141</v>
+        <v>39.4857795014197</v>
       </c>
       <c r="M30" t="n">
-        <v>49.25530596940229</v>
+        <v>80.11798662581266</v>
       </c>
       <c r="N30" t="n">
         <v>52.92400270700748</v>
@@ -36931,10 +36931,10 @@
         <v>32.756857276071</v>
       </c>
       <c r="Q30" t="n">
-        <v>13.70328410957228</v>
+        <v>505.2841374114592</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.5769923305466</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>1023.235950249081</v>
       </c>
       <c r="M32" t="n">
-        <v>331.771593189525</v>
+        <v>331.7715931895269</v>
       </c>
       <c r="N32" t="n">
         <v>57.94854494869971</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>17.35332910203671</v>
       </c>
       <c r="J33" t="n">
         <v>301.4202066997813</v>
       </c>
       <c r="K33" t="n">
-        <v>23.71097506398125</v>
+        <v>642.5596296734152</v>
       </c>
       <c r="L33" t="n">
-        <v>377.0704623941868</v>
+        <v>39.4857795014197</v>
       </c>
       <c r="M33" t="n">
-        <v>49.25530596940229</v>
+        <v>80.11798662581266</v>
       </c>
       <c r="N33" t="n">
         <v>52.92400270700748</v>
       </c>
       <c r="O33" t="n">
-        <v>966.4057614354274</v>
+        <v>44.7679343278803</v>
       </c>
       <c r="P33" t="n">
         <v>32.756857276071</v>
       </c>
       <c r="Q33" t="n">
-        <v>13.70328410957228</v>
+        <v>505.2841374114592</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.5769923305466</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>15.87656275887436</v>
+        <v>411.5626422615271</v>
       </c>
       <c r="K35" t="n">
         <v>790.6234095540874</v>
       </c>
       <c r="L35" t="n">
-        <v>1023.235950249081</v>
+        <v>45.90870820102717</v>
       </c>
       <c r="M35" t="n">
         <v>1108.142218155075</v>
       </c>
       <c r="N35" t="n">
-        <v>1081.340348072742</v>
+        <v>57.94854494869971</v>
       </c>
       <c r="O35" t="n">
-        <v>572.4473421667913</v>
+        <v>943.6027232835072</v>
       </c>
       <c r="P35" t="n">
-        <v>39.17035190462494</v>
+        <v>792.1793290258943</v>
       </c>
       <c r="Q35" t="n">
-        <v>21.50816024158848</v>
+        <v>350.108405124847</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>152.2683625482009</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37396,19 +37396,19 @@
         <v>49.25530596940229</v>
       </c>
       <c r="N36" t="n">
-        <v>396.1930351620113</v>
+        <v>52.92400270700748</v>
       </c>
       <c r="O36" t="n">
         <v>44.7679343278803</v>
       </c>
       <c r="P36" t="n">
-        <v>32.756857276071</v>
+        <v>777.9597358935239</v>
       </c>
       <c r="Q36" t="n">
-        <v>505.2841374114592</v>
+        <v>203.9272835795564</v>
       </c>
       <c r="R36" t="n">
-        <v>100.5769923305466</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37484,7 +37484,7 @@
         <v>347.3351781899663</v>
       </c>
       <c r="Q37" t="n">
-        <v>173.1758623800552</v>
+        <v>173.1758623800551</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,16 +37545,16 @@
         <v>411.5626422615271</v>
       </c>
       <c r="K38" t="n">
-        <v>790.6234095540874</v>
+        <v>490.0871973239503</v>
       </c>
       <c r="L38" t="n">
-        <v>1023.235950249081</v>
+        <v>45.90870820102717</v>
       </c>
       <c r="M38" t="n">
         <v>1108.142218155075</v>
       </c>
       <c r="N38" t="n">
-        <v>452.5623344869285</v>
+        <v>1081.340348072742</v>
       </c>
       <c r="O38" t="n">
         <v>52.53029912868298</v>
@@ -37563,10 +37563,10 @@
         <v>792.1793290258943</v>
       </c>
       <c r="Q38" t="n">
-        <v>21.50816024158848</v>
+        <v>518.3252383857654</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>152.2683625482009</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>6.367184003224601</v>
+        <v>301.4202066997813</v>
       </c>
       <c r="K39" t="n">
         <v>23.71097506398125</v>
@@ -37633,19 +37633,19 @@
         <v>49.25530596940229</v>
       </c>
       <c r="N39" t="n">
-        <v>1174.585158670923</v>
+        <v>52.92400270700748</v>
       </c>
       <c r="O39" t="n">
-        <v>477.3823110608359</v>
+        <v>44.7679343278803</v>
       </c>
       <c r="P39" t="n">
-        <v>32.756857276071</v>
+        <v>777.9597358935239</v>
       </c>
       <c r="Q39" t="n">
-        <v>13.70328410957228</v>
+        <v>505.2841374114592</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>22.43877808097447</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37706,7 +37706,7 @@
         <v>281.4759826357232</v>
       </c>
       <c r="L40" t="n">
-        <v>418.710468503874</v>
+        <v>418.7104685038739</v>
       </c>
       <c r="M40" t="n">
         <v>457.5103506821436</v>
@@ -37721,7 +37721,7 @@
         <v>347.3351781899663</v>
       </c>
       <c r="Q40" t="n">
-        <v>173.1758623800552</v>
+        <v>173.1758623800551</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>15.87656275887436</v>
+        <v>411.5626422615271</v>
       </c>
       <c r="K41" t="n">
-        <v>32.12314413756187</v>
+        <v>790.6234095540874</v>
       </c>
       <c r="L41" t="n">
         <v>1023.235950249081</v>
       </c>
       <c r="M41" t="n">
-        <v>1108.142218155075</v>
+        <v>56.28054978184703</v>
       </c>
       <c r="N41" t="n">
-        <v>1081.340348072742</v>
+        <v>855.3385621677796</v>
       </c>
       <c r="O41" t="n">
-        <v>943.6027232835072</v>
+        <v>52.53029912868298</v>
       </c>
       <c r="P41" t="n">
-        <v>426.5152362044346</v>
+        <v>792.1793290258943</v>
       </c>
       <c r="Q41" t="n">
-        <v>21.50816024158848</v>
+        <v>518.3252383857654</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>152.2683625482009</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>17.35332910203671</v>
       </c>
       <c r="J42" t="n">
-        <v>6.367184003224601</v>
+        <v>301.4202066997813</v>
       </c>
       <c r="K42" t="n">
-        <v>23.71097506398125</v>
+        <v>642.5596296734152</v>
       </c>
       <c r="L42" t="n">
-        <v>907.2521875115141</v>
+        <v>39.4857795014197</v>
       </c>
       <c r="M42" t="n">
-        <v>49.25530596940229</v>
+        <v>80.11798662581266</v>
       </c>
       <c r="N42" t="n">
-        <v>739.433127393784</v>
+        <v>52.92400270700748</v>
       </c>
       <c r="O42" t="n">
         <v>44.7679343278803</v>
@@ -37879,10 +37879,10 @@
         <v>32.756857276071</v>
       </c>
       <c r="Q42" t="n">
-        <v>13.70328410957228</v>
+        <v>505.2841374114592</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.5769923305466</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>99.84409422059467</v>
+        <v>99.84409422059466</v>
       </c>
       <c r="K43" t="n">
         <v>281.4759826357232</v>
@@ -37958,7 +37958,7 @@
         <v>347.3351781899663</v>
       </c>
       <c r="Q43" t="n">
-        <v>173.1758623800552</v>
+        <v>173.1758623800551</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>15.87656275887436</v>
+        <v>411.5626422615271</v>
       </c>
       <c r="K44" t="n">
         <v>790.6234095540874</v>
@@ -38025,22 +38025,22 @@
         <v>1023.235950249081</v>
       </c>
       <c r="M44" t="n">
-        <v>1108.142218155075</v>
+        <v>56.28054978184703</v>
       </c>
       <c r="N44" t="n">
-        <v>1081.340348072742</v>
+        <v>57.94854494869971</v>
       </c>
       <c r="O44" t="n">
-        <v>572.4473421667903</v>
+        <v>943.6027232835072</v>
       </c>
       <c r="P44" t="n">
-        <v>39.17035190462494</v>
+        <v>698.49692209015</v>
       </c>
       <c r="Q44" t="n">
-        <v>21.50816024158848</v>
+        <v>518.3252383857654</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>152.2683625482009</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>6.367184003224601</v>
+        <v>301.4202066997813</v>
       </c>
       <c r="K45" t="n">
         <v>23.71097506398125</v>
@@ -38104,22 +38104,22 @@
         <v>39.4857795014197</v>
       </c>
       <c r="M45" t="n">
-        <v>481.8696827023579</v>
+        <v>49.25530596940229</v>
       </c>
       <c r="N45" t="n">
-        <v>1174.585158670923</v>
+        <v>52.92400270700748</v>
       </c>
       <c r="O45" t="n">
         <v>44.7679343278803</v>
       </c>
       <c r="P45" t="n">
-        <v>32.756857276071</v>
+        <v>777.9597358935239</v>
       </c>
       <c r="Q45" t="n">
-        <v>13.70328410957228</v>
+        <v>505.2841374114592</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>22.43877808097447</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>99.84409422059467</v>
+        <v>99.84409422059466</v>
       </c>
       <c r="K46" t="n">
         <v>281.4759826357232</v>
@@ -38195,7 +38195,7 @@
         <v>347.3351781899663</v>
       </c>
       <c r="Q46" t="n">
-        <v>173.1758623800552</v>
+        <v>173.1758623800551</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
